--- a/scripts/data_sources/santana_master_v2.xlsx
+++ b/scripts/data_sources/santana_master_v2.xlsx
@@ -3277,7 +3277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3285,7 +3285,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -3570,7 +3569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S440"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H332" sqref="H332"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3580,9 +3581,9 @@
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -3673,11 +3674,11 @@
       <c r="G2" s="2">
         <v>2.8587962962962963E-3</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>(HOUR(G2)*3600) + (MINUTE(G2)*60) + SECOND(G2)</f>
         <v>247</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="J2" t="s">
@@ -3724,11 +3725,11 @@
       <c r="G3" s="2">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>(HOUR(G3)*3600) + (MINUTE(G3)*60) + SECOND(G3)</f>
         <v>240</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="J3" t="s">
@@ -3778,11 +3779,11 @@
       <c r="G4" s="2">
         <v>2.2337962962962967E-3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f t="shared" ref="H4:H67" si="0">(HOUR(G4)*3600) + (MINUTE(G4)*60) + SECOND(G4)</f>
         <v>193</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="J4" t="s">
@@ -3832,11 +3833,11 @@
       <c r="G5" s="2">
         <v>1.9328703703703704E-3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="J5" t="s">
@@ -3883,11 +3884,11 @@
       <c r="G6" s="2">
         <v>3.0439814814814821E-3</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="J6" t="s">
@@ -3934,11 +3935,11 @@
       <c r="G7" s="2">
         <v>1.8055555555555557E-3</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="J7" t="s">
@@ -3988,11 +3989,11 @@
       <c r="G8" s="2">
         <v>3.3101851851851851E-3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>286</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="J8" t="s">
@@ -4039,11 +4040,11 @@
       <c r="G9" s="2">
         <v>3.2060185185185191E-3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="J9" t="s">
@@ -4093,11 +4094,11 @@
       <c r="G10" s="2">
         <v>4.6064814814814814E-3</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="J10" t="s">
@@ -4144,11 +4145,11 @@
       <c r="G11" s="2">
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="J11" t="s">
@@ -4195,11 +4196,11 @@
       <c r="G12" s="2">
         <v>3.7500000000000003E-3</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="J12" t="s">
@@ -4249,11 +4250,11 @@
       <c r="G13" s="2">
         <v>2.9976851851851848E-3</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="J13" t="s">
@@ -4303,11 +4304,11 @@
       <c r="G14" s="2">
         <v>3.4953703703703705E-3</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>302</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="J14" t="s">
@@ -4354,11 +4355,11 @@
       <c r="G15" s="2">
         <v>1.9791666666666668E-3</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="J15" t="s">
@@ -4408,11 +4409,11 @@
       <c r="G16" s="2">
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="J16" t="s">
@@ -4462,11 +4463,11 @@
       <c r="G17" s="2">
         <v>3.3217592592592591E-3</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f t="shared" si="0"/>
         <v>287</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="J17" t="s">
@@ -4513,11 +4514,11 @@
       <c r="G18" s="2">
         <v>2.8587962962962963E-3</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="J18" t="s">
@@ -4567,11 +4568,11 @@
       <c r="G19" s="2">
         <v>1.0648148148148147E-3</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="J19" t="s">
@@ -4618,11 +4619,11 @@
       <c r="G20" s="2">
         <v>2.4768518518518516E-3</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="J20" t="s">
@@ -4669,11 +4670,11 @@
       <c r="G21" s="2">
         <v>3.8310185185185183E-3</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="J21" t="s">
@@ -4720,11 +4721,11 @@
       <c r="G22" s="2">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="J22" t="s">
@@ -4774,11 +4775,11 @@
       <c r="G23" s="2">
         <v>4.1319444444444442E-3</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="J23" t="s">
@@ -4825,11 +4826,11 @@
       <c r="G24" s="2">
         <v>2.4652777777777776E-3</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="J24" t="s">
@@ -4879,11 +4880,11 @@
       <c r="G25" s="2">
         <v>3.9930555555555561E-3</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="J25" t="s">
@@ -4933,11 +4934,11 @@
       <c r="G26" s="2">
         <v>3.7384259259259263E-3</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <f t="shared" si="0"/>
         <v>323</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="J26" t="s">
@@ -4984,11 +4985,11 @@
       <c r="G27" s="2">
         <v>2.2569444444444447E-3</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="J27" t="s">
@@ -5038,11 +5039,11 @@
       <c r="G28" s="2">
         <v>1.9791666666666668E-3</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="J28" t="s">
@@ -5089,11 +5090,11 @@
       <c r="G29" s="2">
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>1031</v>
       </c>
       <c r="J29" t="s">
@@ -5143,11 +5144,11 @@
       <c r="G30" s="2">
         <v>1.5046296296296294E-3</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>1031</v>
       </c>
       <c r="J30" t="s">
@@ -5197,11 +5198,11 @@
       <c r="G31" s="2">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>1031</v>
       </c>
       <c r="J31" t="s">
@@ -5254,11 +5255,11 @@
       <c r="G32" s="2">
         <v>1.5393518518518519E-3</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>1031</v>
       </c>
       <c r="J32" t="s">
@@ -5308,11 +5309,11 @@
       <c r="G33" s="2">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="5" t="s">
         <v>1031</v>
       </c>
       <c r="J33" t="s">
@@ -5362,11 +5363,11 @@
       <c r="G34" s="2">
         <v>1.7291666666666667E-2</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <f>(HOUR(G34)*3600) + (MINUTE(G34)*60) + SECOND(G34)</f>
         <v>1494</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="5" t="s">
         <v>1031</v>
       </c>
       <c r="J34" t="s">
@@ -5416,11 +5417,11 @@
       <c r="G35" s="2">
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="J35" t="s">
@@ -5467,11 +5468,11 @@
       <c r="G36" s="2">
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="J36" t="s">
@@ -5518,11 +5519,11 @@
       <c r="G37" s="2">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="J37" t="s">
@@ -5569,11 +5570,11 @@
       <c r="G38" s="2">
         <v>1.5972222222222221E-3</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="J38" t="s">
@@ -5623,11 +5624,11 @@
       <c r="G39" s="2">
         <v>4.2129629629629626E-3</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="J39" t="s">
@@ -5674,11 +5675,11 @@
       <c r="G40" s="2">
         <v>5.3240740740740748E-3</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="J40" t="s">
@@ -5731,11 +5732,11 @@
       <c r="G41" s="2">
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="J41" t="s">
@@ -5779,11 +5780,11 @@
       <c r="G42" s="2">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="J42" t="s">
@@ -5830,11 +5831,11 @@
       <c r="G43" s="2">
         <v>3.1712962962962958E-3</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="J43" t="s">
@@ -5881,11 +5882,11 @@
       <c r="G44" s="2">
         <v>6.3078703703703708E-3</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <f t="shared" si="0"/>
         <v>545</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="J44" t="s">
@@ -5932,11 +5933,11 @@
       <c r="G45" s="2">
         <v>5.4166666666666669E-3</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="J45" t="s">
@@ -5986,11 +5987,11 @@
       <c r="G46" s="2">
         <v>2.1874999999999998E-3</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="J46" t="s">
@@ -6040,11 +6041,11 @@
       <c r="G47" s="2">
         <v>6.5972222222222222E-3</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="J47" t="s">
@@ -6094,11 +6095,11 @@
       <c r="G48" s="2">
         <v>1.0937500000000001E-2</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <f t="shared" si="0"/>
         <v>945</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="J48" t="s">
@@ -6148,11 +6149,11 @@
       <c r="G49" s="2">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="J49" t="s">
@@ -6199,11 +6200,11 @@
       <c r="G50" s="2">
         <v>2.9050925925925928E-3</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="J50" t="s">
@@ -6250,11 +6251,11 @@
       <c r="G51" s="2">
         <v>2.5231481481481481E-3</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="J51" t="s">
@@ -6307,11 +6308,11 @@
       <c r="G52" s="2">
         <v>2.2106481481481478E-3</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="J52" t="s">
@@ -6358,11 +6359,11 @@
       <c r="G53" s="2">
         <v>4.0740740740740746E-3</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="J53" t="s">
@@ -6415,11 +6416,11 @@
       <c r="G54" s="2">
         <v>4.0162037037037033E-3</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="6">
         <f t="shared" si="0"/>
         <v>347</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="J54" t="s">
@@ -6469,11 +6470,11 @@
       <c r="G55" s="2">
         <v>4.108796296296297E-3</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="6">
         <f t="shared" si="0"/>
         <v>355</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="J55" t="s">
@@ -6520,11 +6521,11 @@
       <c r="G56" s="2">
         <v>2.685185185185185E-3</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="6">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I56" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="J56" t="s">
@@ -6574,11 +6575,11 @@
       <c r="G57" s="2">
         <v>8.0208333333333329E-3</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="6">
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="J57" t="s">
@@ -6625,11 +6626,11 @@
       <c r="G58" s="2">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="6">
         <f t="shared" si="0"/>
         <v>395</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="J58" t="s">
@@ -6676,11 +6677,11 @@
       <c r="G59" s="2">
         <v>2.4652777777777776E-3</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="6">
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J59" t="s">
@@ -6724,11 +6725,11 @@
       <c r="G60" s="2">
         <v>2.2337962962962967E-3</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="6">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J60" t="s">
@@ -6775,11 +6776,11 @@
       <c r="G61" s="2">
         <v>7.9861111111111122E-3</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="6">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I61" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J61" t="s">
@@ -6826,11 +6827,11 @@
       <c r="G62" s="2">
         <v>2.5231481481481481E-3</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="6">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="I62" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J62" t="s">
@@ -6880,11 +6881,11 @@
       <c r="G63" s="2">
         <v>2.7546296296296294E-3</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="6">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="I63" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J63" t="s">
@@ -6931,11 +6932,11 @@
       <c r="G64" s="2">
         <v>4.0162037037037033E-3</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="6">
         <f t="shared" si="0"/>
         <v>347</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I64" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J64" t="s">
@@ -6982,11 +6983,11 @@
       <c r="G65" s="2">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="6">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J65" t="s">
@@ -7030,11 +7031,11 @@
       <c r="G66" s="2">
         <v>6.3657407407407402E-4</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J66" t="s">
@@ -7081,11 +7082,11 @@
       <c r="G67" s="2">
         <v>2.9282407407407412E-3</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="6">
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J67" t="s">
@@ -7132,11 +7133,11 @@
       <c r="G68" s="2">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="6">
         <f t="shared" ref="H68:H131" si="1">(HOUR(G68)*3600) + (MINUTE(G68)*60) + SECOND(G68)</f>
         <v>74</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J68" t="s">
@@ -7183,11 +7184,11 @@
       <c r="G69" s="2">
         <v>2.9398148148148148E-3</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="6">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J69" t="s">
@@ -7234,11 +7235,11 @@
       <c r="G70" s="2">
         <v>1.9791666666666668E-3</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="6">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J70" t="s">
@@ -7285,11 +7286,11 @@
       <c r="G71" s="2">
         <v>3.0787037037037037E-3</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="6">
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="I71" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J71" t="s">
@@ -7336,11 +7337,11 @@
       <c r="G72" s="2">
         <v>2.8009259259259259E-3</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="6">
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I72" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J72" t="s">
@@ -7384,11 +7385,11 @@
       <c r="G73" s="2">
         <v>5.0578703703703706E-3</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="6">
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J73" t="s">
@@ -7435,11 +7436,11 @@
       <c r="G74" s="2">
         <v>6.9212962962962969E-3</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="6">
         <f t="shared" si="1"/>
         <v>598</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J74" t="s">
@@ -7483,11 +7484,11 @@
       <c r="G75" s="2">
         <v>8.449074074074075E-4</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="6">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J75" t="s">
@@ -7531,11 +7532,11 @@
       <c r="G76" s="2">
         <v>3.9236111111111112E-3</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="6">
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J76" t="s">
@@ -7582,11 +7583,11 @@
       <c r="G77" s="2">
         <v>6.2037037037037043E-3</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="6">
         <f t="shared" si="1"/>
         <v>536</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I77" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J77" t="s">
@@ -7633,11 +7634,11 @@
       <c r="G78" s="2">
         <v>2.1643518518518518E-3</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="6">
         <f t="shared" si="1"/>
         <v>187</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J78" t="s">
@@ -7684,11 +7685,11 @@
       <c r="G79" s="2">
         <v>5.3240740740740748E-3</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="6">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J79" t="s">
@@ -7735,11 +7736,11 @@
       <c r="G80" s="2">
         <v>1.1076388888888887E-2</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="6">
         <f t="shared" si="1"/>
         <v>957</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="I80" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="J80" t="s">
@@ -7786,11 +7787,11 @@
       <c r="G81" s="2">
         <v>8.2175925925925917E-4</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="6">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="J81" t="s">
@@ -7837,11 +7838,11 @@
       <c r="G82" s="2">
         <v>6.8865740740740736E-3</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="6">
         <f t="shared" si="1"/>
         <v>595</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="I82" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="J82" t="s">
@@ -7891,11 +7892,11 @@
       <c r="G83" s="2">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="6">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="I83" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="J83" t="s">
@@ -7945,11 +7946,11 @@
       <c r="G84" s="2">
         <v>1.0219907407407408E-2</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="6">
         <f t="shared" si="1"/>
         <v>883</v>
       </c>
-      <c r="I84" s="6" t="s">
+      <c r="I84" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="J84" t="s">
@@ -7999,11 +8000,11 @@
       <c r="G85" s="2">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="6">
         <f t="shared" si="1"/>
         <v>258</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I85" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="J85" t="s">
@@ -8053,11 +8054,11 @@
       <c r="G86" s="2">
         <v>7.5231481481481471E-4</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="6">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="I86" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J86" t="s">
@@ -8101,11 +8102,11 @@
       <c r="G87" s="2">
         <v>2.5347222222222221E-3</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="6">
         <f t="shared" si="1"/>
         <v>219</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="I87" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J87" t="s">
@@ -8152,11 +8153,11 @@
       <c r="G88" s="2">
         <v>3.0324074074074073E-3</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="6">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="I88" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J88" t="s">
@@ -8206,11 +8207,11 @@
       <c r="G89" s="2">
         <v>3.9814814814814817E-3</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="6">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J89" t="s">
@@ -8260,11 +8261,11 @@
       <c r="G90" s="2">
         <v>3.0324074074074073E-3</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="6">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J90" t="s">
@@ -8314,11 +8315,11 @@
       <c r="G91" s="2">
         <v>3.5879629629629629E-3</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="6">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I91" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J91" t="s">
@@ -8365,11 +8366,11 @@
       <c r="G92" s="2">
         <v>3.1365740740740742E-3</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="6">
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J92" t="s">
@@ -8419,11 +8420,11 @@
       <c r="G93" s="2">
         <v>3.2754629629629631E-3</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="6">
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J93" t="s">
@@ -8473,11 +8474,11 @@
       <c r="G94" s="2">
         <v>2.0949074074074073E-3</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="6">
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="I94" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J94" t="s">
@@ -8524,11 +8525,11 @@
       <c r="G95" s="2">
         <v>1.4930555555555556E-3</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="6">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I95" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J95" t="s">
@@ -8575,11 +8576,11 @@
       <c r="G96" s="2">
         <v>5.7638888888888887E-3</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="6">
         <f t="shared" si="1"/>
         <v>498</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="I96" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J96" t="s">
@@ -8632,11 +8633,11 @@
       <c r="G97" s="2">
         <v>1.9328703703703704E-3</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="6">
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="I97" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="J97" t="s">
@@ -8683,11 +8684,11 @@
       <c r="G98" s="2">
         <v>5.7291666666666671E-3</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="6">
         <f t="shared" si="1"/>
         <v>495</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="J98" t="s">
@@ -8734,11 +8735,11 @@
       <c r="G99" s="2">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="6">
         <f t="shared" si="1"/>
         <v>326</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="I99" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="J99" t="s">
@@ -8788,11 +8789,11 @@
       <c r="G100" s="2">
         <v>3.3564814814814811E-3</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="6">
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="I100" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="J100" t="s">
@@ -8842,11 +8843,11 @@
       <c r="G101" s="2">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H101" s="6">
         <f t="shared" si="1"/>
         <v>373</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="I101" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="J101" t="s">
@@ -8896,11 +8897,11 @@
       <c r="G102" s="2">
         <v>3.9583333333333337E-3</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H102" s="6">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="I102" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="J102" t="s">
@@ -8950,11 +8951,11 @@
       <c r="G103" s="2">
         <v>3.5416666666666665E-3</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="6">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="I103" s="6" t="s">
+      <c r="I103" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="J103" t="s">
@@ -9001,11 +9002,11 @@
       <c r="G104" s="2">
         <v>3.9583333333333337E-3</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="6">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I104" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="J104" t="s">
@@ -9055,11 +9056,11 @@
       <c r="G105" s="2">
         <v>1.5624999999999999E-3</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="6">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="I105" s="6" t="s">
+      <c r="I105" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J105" t="s">
@@ -9106,11 +9107,11 @@
       <c r="G106" s="2">
         <v>2.4074074074074076E-3</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106" s="6">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="I106" s="6" t="s">
+      <c r="I106" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J106" t="s">
@@ -9157,11 +9158,11 @@
       <c r="G107" s="2">
         <v>1.5277777777777779E-3</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="6">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="I107" s="6" t="s">
+      <c r="I107" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J107" t="s">
@@ -9208,11 +9209,11 @@
       <c r="G108" s="2">
         <v>3.1249999999999997E-3</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="6">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="I108" s="6" t="s">
+      <c r="I108" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J108" t="s">
@@ -9262,11 +9263,11 @@
       <c r="G109" s="2">
         <v>3.483796296296296E-3</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="6">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="I109" s="6" t="s">
+      <c r="I109" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J109" t="s">
@@ -9313,11 +9314,11 @@
       <c r="G110" s="2">
         <v>2.5578703703703705E-3</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="6">
         <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="I110" s="6" t="s">
+      <c r="I110" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J110" t="s">
@@ -9364,11 +9365,11 @@
       <c r="G111" s="2">
         <v>3.1944444444444442E-3</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H111" s="6">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="I111" s="6" t="s">
+      <c r="I111" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J111" t="s">
@@ -9415,11 +9416,11 @@
       <c r="G112" s="2">
         <v>3.7615740740740739E-3</v>
       </c>
-      <c r="H112" s="7">
+      <c r="H112" s="6">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="I112" s="6" t="s">
+      <c r="I112" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J112" t="s">
@@ -9466,11 +9467,11 @@
       <c r="G113" s="2">
         <v>3.4027777777777784E-3</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113" s="6">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="I113" s="6" t="s">
+      <c r="I113" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J113" t="s">
@@ -9520,11 +9521,11 @@
       <c r="G114" s="2">
         <v>3.5069444444444445E-3</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114" s="6">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="I114" s="6" t="s">
+      <c r="I114" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J114" t="s">
@@ -9574,11 +9575,11 @@
       <c r="G115" s="2">
         <v>3.1597222222222222E-3</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="6">
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="I115" s="6" t="s">
+      <c r="I115" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="J115" t="s">
@@ -9628,11 +9629,11 @@
       <c r="G116" s="2">
         <v>1.8981481481481482E-3</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116" s="6">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="I116" s="6" t="s">
+      <c r="I116" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J116" t="s">
@@ -9679,11 +9680,11 @@
       <c r="G117" s="2">
         <v>1.5856481481481479E-3</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="6">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="I117" s="6" t="s">
+      <c r="I117" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J117" t="s">
@@ -9727,11 +9728,11 @@
       <c r="G118" s="2">
         <v>1.8171296296296297E-3</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118" s="6">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="I118" s="6" t="s">
+      <c r="I118" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J118" t="s">
@@ -9775,11 +9776,11 @@
       <c r="G119" s="2">
         <v>1.4930555555555556E-3</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="6">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="I119" s="6" t="s">
+      <c r="I119" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J119" t="s">
@@ -9823,11 +9824,11 @@
       <c r="G120" s="2">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="H120" s="7">
+      <c r="H120" s="6">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="I120" s="6" t="s">
+      <c r="I120" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J120" t="s">
@@ -9877,11 +9878,11 @@
       <c r="G121" s="2">
         <v>2.3726851851851851E-3</v>
       </c>
-      <c r="H121" s="7">
+      <c r="H121" s="6">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="I121" s="6" t="s">
+      <c r="I121" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J121" t="s">
@@ -9925,11 +9926,11 @@
       <c r="G122" s="2">
         <v>1.1226851851851851E-3</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H122" s="6">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I122" s="6" t="s">
+      <c r="I122" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J122" t="s">
@@ -9976,11 +9977,11 @@
       <c r="G123" s="2">
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="H123" s="7">
+      <c r="H123" s="6">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="I123" s="6" t="s">
+      <c r="I123" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J123" t="s">
@@ -10030,11 +10031,11 @@
       <c r="G124" s="2">
         <v>5.3819444444444453E-3</v>
       </c>
-      <c r="H124" s="7">
+      <c r="H124" s="6">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="I124" s="6" t="s">
+      <c r="I124" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J124" t="s">
@@ -10081,11 +10082,11 @@
       <c r="G125" s="2">
         <v>2.8819444444444444E-3</v>
       </c>
-      <c r="H125" s="7">
+      <c r="H125" s="6">
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="I125" s="6" t="s">
+      <c r="I125" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J125" t="s">
@@ -10129,11 +10130,11 @@
       <c r="G126" s="2">
         <v>2.8819444444444444E-3</v>
       </c>
-      <c r="H126" s="7">
+      <c r="H126" s="6">
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="I126" s="6" t="s">
+      <c r="I126" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J126" t="s">
@@ -10180,11 +10181,11 @@
       <c r="G127" s="2">
         <v>3.483796296296296E-3</v>
       </c>
-      <c r="H127" s="7">
+      <c r="H127" s="6">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="I127" s="6" t="s">
+      <c r="I127" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J127" t="s">
@@ -10231,11 +10232,11 @@
       <c r="G128" s="2">
         <v>9.7337962962962977E-3</v>
       </c>
-      <c r="H128" s="7">
+      <c r="H128" s="6">
         <f t="shared" si="1"/>
         <v>841</v>
       </c>
-      <c r="I128" s="6" t="s">
+      <c r="I128" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J128" t="s">
@@ -10282,11 +10283,11 @@
       <c r="G129" s="2">
         <v>3.530092592592592E-3</v>
       </c>
-      <c r="H129" s="7">
+      <c r="H129" s="6">
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="I129" s="6" t="s">
+      <c r="I129" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J129" t="s">
@@ -10333,11 +10334,11 @@
       <c r="G130" s="2">
         <v>3.6226851851851854E-3</v>
       </c>
-      <c r="H130" s="7">
+      <c r="H130" s="6">
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
-      <c r="I130" s="6" t="s">
+      <c r="I130" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J130" t="s">
@@ -10387,11 +10388,11 @@
       <c r="G131" s="2">
         <v>8.9814814814814809E-3</v>
       </c>
-      <c r="H131" s="7">
+      <c r="H131" s="6">
         <f t="shared" si="1"/>
         <v>776</v>
       </c>
-      <c r="I131" s="6" t="s">
+      <c r="I131" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="J131" t="s">
@@ -10438,11 +10439,11 @@
       <c r="G132" s="2">
         <v>4.0509259259259257E-3</v>
       </c>
-      <c r="H132" s="7">
+      <c r="H132" s="6">
         <f t="shared" ref="H132:H195" si="2">(HOUR(G132)*3600) + (MINUTE(G132)*60) + SECOND(G132)</f>
         <v>350</v>
       </c>
-      <c r="I132" s="6" t="s">
+      <c r="I132" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="J132" t="s">
@@ -10492,11 +10493,11 @@
       <c r="G133" s="2">
         <v>3.0902777777777782E-3</v>
       </c>
-      <c r="H133" s="7">
+      <c r="H133" s="6">
         <f t="shared" si="2"/>
         <v>267</v>
       </c>
-      <c r="I133" s="6" t="s">
+      <c r="I133" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="J133" t="s">
@@ -10546,11 +10547,11 @@
       <c r="G134" s="2">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="H134" s="7">
+      <c r="H134" s="6">
         <f t="shared" si="2"/>
         <v>373</v>
       </c>
-      <c r="I134" s="6" t="s">
+      <c r="I134" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="J134" t="s">
@@ -10600,11 +10601,11 @@
       <c r="G135" s="2">
         <v>3.2986111111111111E-3</v>
       </c>
-      <c r="H135" s="7">
+      <c r="H135" s="6">
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="I135" s="6" t="s">
+      <c r="I135" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="J135" t="s">
@@ -10654,11 +10655,11 @@
       <c r="G136" s="2">
         <v>2.8819444444444444E-3</v>
       </c>
-      <c r="H136" s="7">
+      <c r="H136" s="6">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="I136" s="6" t="s">
+      <c r="I136" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="J136" t="s">
@@ -10708,11 +10709,11 @@
       <c r="G137" s="2">
         <v>3.2986111111111111E-3</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H137" s="6">
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="I137" s="6" t="s">
+      <c r="I137" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="J137" t="s">
@@ -10762,11 +10763,11 @@
       <c r="G138" s="2">
         <v>2.627314814814815E-3</v>
       </c>
-      <c r="H138" s="7">
+      <c r="H138" s="6">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="I138" s="6" t="s">
+      <c r="I138" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="J138" t="s">
@@ -10813,11 +10814,11 @@
       <c r="G139" s="2">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="H139" s="7">
+      <c r="H139" s="6">
         <f t="shared" si="2"/>
         <v>328</v>
       </c>
-      <c r="I139" s="6" t="s">
+      <c r="I139" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="J139" t="s">
@@ -10867,11 +10868,11 @@
       <c r="G140" s="2">
         <v>2.3611111111111111E-3</v>
       </c>
-      <c r="H140" s="7">
+      <c r="H140" s="6">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="I140" s="6" t="s">
+      <c r="I140" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="J140" t="s">
@@ -10918,11 +10919,11 @@
       <c r="G141" s="2">
         <v>4.1666666666666669E-4</v>
       </c>
-      <c r="H141" s="7">
+      <c r="H141" s="6">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="I141" s="6" t="s">
+      <c r="I141" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J141" t="s">
@@ -10969,11 +10970,11 @@
       <c r="G142" s="2">
         <v>1.4467592592592594E-3</v>
       </c>
-      <c r="H142" s="7">
+      <c r="H142" s="6">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I142" s="6" t="s">
+      <c r="I142" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J142" t="s">
@@ -11020,11 +11021,11 @@
       <c r="G143" s="2">
         <v>5.5555555555555556E-4</v>
       </c>
-      <c r="H143" s="7">
+      <c r="H143" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="I143" s="6" t="s">
+      <c r="I143" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J143" t="s">
@@ -11068,11 +11069,11 @@
       <c r="G144" s="2">
         <v>2.4305555555555556E-3</v>
       </c>
-      <c r="H144" s="7">
+      <c r="H144" s="6">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="I144" s="6" t="s">
+      <c r="I144" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J144" t="s">
@@ -11119,11 +11120,11 @@
       <c r="G145" s="2">
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="H145" s="7">
+      <c r="H145" s="6">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="I145" s="6" t="s">
+      <c r="I145" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J145" t="s">
@@ -11170,11 +11171,11 @@
       <c r="G146" s="2">
         <v>8.1018518518518516E-4</v>
       </c>
-      <c r="H146" s="7">
+      <c r="H146" s="6">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="I146" s="6" t="s">
+      <c r="I146" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J146" t="s">
@@ -11221,11 +11222,11 @@
       <c r="G147" s="2">
         <v>2.8819444444444444E-3</v>
       </c>
-      <c r="H147" s="7">
+      <c r="H147" s="6">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="I147" s="6" t="s">
+      <c r="I147" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J147" t="s">
@@ -11278,11 +11279,11 @@
       <c r="G148" s="2">
         <v>2.2106481481481478E-3</v>
       </c>
-      <c r="H148" s="7">
+      <c r="H148" s="6">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="I148" s="6" t="s">
+      <c r="I148" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J148" t="s">
@@ -11329,11 +11330,11 @@
       <c r="G149" s="2">
         <v>2.1527777777777778E-3</v>
       </c>
-      <c r="H149" s="7">
+      <c r="H149" s="6">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="I149" s="6" t="s">
+      <c r="I149" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J149" t="s">
@@ -11380,11 +11381,11 @@
       <c r="G150" s="2">
         <v>4.409722222222222E-3</v>
       </c>
-      <c r="H150" s="7">
+      <c r="H150" s="6">
         <f t="shared" si="2"/>
         <v>381</v>
       </c>
-      <c r="I150" s="6" t="s">
+      <c r="I150" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J150" t="s">
@@ -11431,11 +11432,11 @@
       <c r="G151" s="2">
         <v>3.645833333333333E-3</v>
       </c>
-      <c r="H151" s="7">
+      <c r="H151" s="6">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="I151" s="6" t="s">
+      <c r="I151" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J151" t="s">
@@ -11485,11 +11486,11 @@
       <c r="G152" s="2">
         <v>1.5856481481481479E-3</v>
       </c>
-      <c r="H152" s="7">
+      <c r="H152" s="6">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="I152" s="6" t="s">
+      <c r="I152" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J152" t="s">
@@ -11533,11 +11534,11 @@
       <c r="G153" s="2">
         <v>2.2685185185185182E-3</v>
       </c>
-      <c r="H153" s="7">
+      <c r="H153" s="6">
         <f t="shared" si="2"/>
         <v>196</v>
       </c>
-      <c r="I153" s="6" t="s">
+      <c r="I153" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J153" t="s">
@@ -11587,11 +11588,11 @@
       <c r="G154" s="2">
         <v>1.0069444444444444E-3</v>
       </c>
-      <c r="H154" s="7">
+      <c r="H154" s="6">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="I154" s="6" t="s">
+      <c r="I154" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J154" t="s">
@@ -11638,11 +11639,11 @@
       <c r="G155" s="2">
         <v>3.5069444444444445E-3</v>
       </c>
-      <c r="H155" s="7">
+      <c r="H155" s="6">
         <f t="shared" si="2"/>
         <v>303</v>
       </c>
-      <c r="I155" s="6" t="s">
+      <c r="I155" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="J155" t="s">
@@ -11689,11 +11690,11 @@
       <c r="G156" s="2">
         <v>1.0185185185185186E-3</v>
       </c>
-      <c r="H156" s="7">
+      <c r="H156" s="6">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="I156" s="6" t="s">
+      <c r="I156" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J156" t="s">
@@ -11740,11 +11741,11 @@
       <c r="G157" s="2">
         <v>2.685185185185185E-3</v>
       </c>
-      <c r="H157" s="7">
+      <c r="H157" s="6">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="I157" s="6" t="s">
+      <c r="I157" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J157" t="s">
@@ -11794,11 +11795,11 @@
       <c r="G158" s="2">
         <v>3.8773148148148143E-3</v>
       </c>
-      <c r="H158" s="7">
+      <c r="H158" s="6">
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="I158" s="6" t="s">
+      <c r="I158" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J158" t="s">
@@ -11845,11 +11846,11 @@
       <c r="G159" s="2">
         <v>3.0787037037037037E-3</v>
       </c>
-      <c r="H159" s="7">
+      <c r="H159" s="6">
         <f t="shared" si="2"/>
         <v>266</v>
       </c>
-      <c r="I159" s="6" t="s">
+      <c r="I159" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J159" t="s">
@@ -11899,11 +11900,11 @@
       <c r="G160" s="2">
         <v>2.8009259259259259E-3</v>
       </c>
-      <c r="H160" s="7">
+      <c r="H160" s="6">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="I160" s="6" t="s">
+      <c r="I160" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J160" t="s">
@@ -11953,11 +11954,11 @@
       <c r="G161" s="2">
         <v>2.8009259259259259E-3</v>
       </c>
-      <c r="H161" s="7">
+      <c r="H161" s="6">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="I161" s="6" t="s">
+      <c r="I161" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J161" t="s">
@@ -12007,11 +12008,11 @@
       <c r="G162" s="2">
         <v>1.1458333333333333E-3</v>
       </c>
-      <c r="H162" s="7">
+      <c r="H162" s="6">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="I162" s="6" t="s">
+      <c r="I162" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J162" t="s">
@@ -12061,11 +12062,11 @@
       <c r="G163" s="2">
         <v>3.0439814814814821E-3</v>
       </c>
-      <c r="H163" s="7">
+      <c r="H163" s="6">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="I163" s="6" t="s">
+      <c r="I163" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J163" t="s">
@@ -12115,11 +12116,11 @@
       <c r="G164" s="2">
         <v>2.3379629629629631E-3</v>
       </c>
-      <c r="H164" s="7">
+      <c r="H164" s="6">
         <f t="shared" si="2"/>
         <v>202</v>
       </c>
-      <c r="I164" s="6" t="s">
+      <c r="I164" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J164" t="s">
@@ -12169,11 +12170,11 @@
       <c r="G165" s="2">
         <v>2.6620370370370374E-3</v>
       </c>
-      <c r="H165" s="7">
+      <c r="H165" s="6">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="I165" s="6" t="s">
+      <c r="I165" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J165" t="s">
@@ -12223,11 +12224,11 @@
       <c r="G166" s="2">
         <v>2.7430555555555559E-3</v>
       </c>
-      <c r="H166" s="7">
+      <c r="H166" s="6">
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="I166" s="6" t="s">
+      <c r="I166" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="J166" t="s">
@@ -12277,11 +12278,11 @@
       <c r="G167" s="2">
         <v>4.6990740740740743E-3</v>
       </c>
-      <c r="H167" s="7">
+      <c r="H167" s="6">
         <f t="shared" si="2"/>
         <v>406</v>
       </c>
-      <c r="I167" s="6" t="s">
+      <c r="I167" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="J167" t="s">
@@ -12328,11 +12329,11 @@
       <c r="G168" s="2">
         <v>4.7453703703703703E-3</v>
       </c>
-      <c r="H168" s="7">
+      <c r="H168" s="6">
         <f t="shared" si="2"/>
         <v>410</v>
       </c>
-      <c r="I168" s="6" t="s">
+      <c r="I168" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="J168" t="s">
@@ -12379,11 +12380,11 @@
       <c r="G169" s="2">
         <v>4.0740740740740746E-3</v>
       </c>
-      <c r="H169" s="7">
+      <c r="H169" s="6">
         <f t="shared" si="2"/>
         <v>352</v>
       </c>
-      <c r="I169" s="6" t="s">
+      <c r="I169" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="J169" t="s">
@@ -12430,11 +12431,11 @@
       <c r="G170" s="2">
         <v>4.8148148148148152E-3</v>
       </c>
-      <c r="H170" s="7">
+      <c r="H170" s="6">
         <f t="shared" si="2"/>
         <v>416</v>
       </c>
-      <c r="I170" s="6" t="s">
+      <c r="I170" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="J170" t="s">
@@ -12481,11 +12482,11 @@
       <c r="G171" s="2">
         <v>4.9884259259259265E-3</v>
       </c>
-      <c r="H171" s="7">
+      <c r="H171" s="6">
         <f t="shared" si="2"/>
         <v>431</v>
       </c>
-      <c r="I171" s="6" t="s">
+      <c r="I171" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="J171" t="s">
@@ -12532,11 +12533,11 @@
       <c r="G172" s="2">
         <v>4.9537037037037041E-3</v>
       </c>
-      <c r="H172" s="7">
+      <c r="H172" s="6">
         <f t="shared" si="2"/>
         <v>428</v>
       </c>
-      <c r="I172" s="6" t="s">
+      <c r="I172" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="J172" t="s">
@@ -12583,11 +12584,11 @@
       <c r="G173" s="2">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="H173" s="7">
+      <c r="H173" s="6">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="I173" s="6" t="s">
+      <c r="I173" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="J173" t="s">
@@ -12637,11 +12638,11 @@
       <c r="G174" s="2">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="H174" s="7">
+      <c r="H174" s="6">
         <f t="shared" si="2"/>
         <v>396</v>
       </c>
-      <c r="I174" s="6" t="s">
+      <c r="I174" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="J174" t="s">
@@ -12688,11 +12689,11 @@
       <c r="G175" s="2">
         <v>3.9930555555555561E-3</v>
       </c>
-      <c r="H175" s="7">
+      <c r="H175" s="6">
         <f t="shared" si="2"/>
         <v>345</v>
       </c>
-      <c r="I175" s="6" t="s">
+      <c r="I175" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="J175" t="s">
@@ -12739,11 +12740,11 @@
       <c r="G176" s="2">
         <v>3.0902777777777782E-3</v>
       </c>
-      <c r="H176" s="7">
+      <c r="H176" s="6">
         <f t="shared" si="2"/>
         <v>267</v>
       </c>
-      <c r="I176" s="6" t="s">
+      <c r="I176" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J176" t="s">
@@ -12793,11 +12794,11 @@
       <c r="G177" s="2">
         <v>3.1481481481481482E-3</v>
       </c>
-      <c r="H177" s="7">
+      <c r="H177" s="6">
         <f t="shared" si="2"/>
         <v>272</v>
       </c>
-      <c r="I177" s="6" t="s">
+      <c r="I177" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J177" t="s">
@@ -12847,11 +12848,11 @@
       <c r="G178" s="2">
         <v>1.4814814814814814E-3</v>
       </c>
-      <c r="H178" s="7">
+      <c r="H178" s="6">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="I178" s="6" t="s">
+      <c r="I178" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J178" t="s">
@@ -12895,11 +12896,11 @@
       <c r="G179" s="2">
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="H179" s="7">
+      <c r="H179" s="6">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="I179" s="6" t="s">
+      <c r="I179" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J179" t="s">
@@ -12949,11 +12950,11 @@
       <c r="G180" s="2">
         <v>3.3101851851851851E-3</v>
       </c>
-      <c r="H180" s="7">
+      <c r="H180" s="6">
         <f t="shared" si="2"/>
         <v>286</v>
       </c>
-      <c r="I180" s="6" t="s">
+      <c r="I180" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J180" t="s">
@@ -13003,11 +13004,11 @@
       <c r="G181" s="2">
         <v>2.4074074074074076E-3</v>
       </c>
-      <c r="H181" s="7">
+      <c r="H181" s="6">
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="I181" s="6" t="s">
+      <c r="I181" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J181" t="s">
@@ -13057,11 +13058,11 @@
       <c r="G182" s="2">
         <v>2.3611111111111111E-3</v>
       </c>
-      <c r="H182" s="7">
+      <c r="H182" s="6">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="I182" s="6" t="s">
+      <c r="I182" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J182" t="s">
@@ -13108,11 +13109,11 @@
       <c r="G183" s="2">
         <v>2.4537037037037036E-3</v>
       </c>
-      <c r="H183" s="7">
+      <c r="H183" s="6">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="I183" s="6" t="s">
+      <c r="I183" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J183" t="s">
@@ -13162,11 +13163,11 @@
       <c r="G184" s="2">
         <v>2.5347222222222221E-3</v>
       </c>
-      <c r="H184" s="7">
+      <c r="H184" s="6">
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="I184" s="6" t="s">
+      <c r="I184" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J184" t="s">
@@ -13213,11 +13214,11 @@
       <c r="G185" s="2">
         <v>3.2754629629629631E-3</v>
       </c>
-      <c r="H185" s="7">
+      <c r="H185" s="6">
         <f t="shared" si="2"/>
         <v>283</v>
       </c>
-      <c r="I185" s="6" t="s">
+      <c r="I185" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J185" t="s">
@@ -13264,11 +13265,11 @@
       <c r="G186" s="2">
         <v>3.3449074074074071E-3</v>
       </c>
-      <c r="H186" s="7">
+      <c r="H186" s="6">
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="I186" s="6" t="s">
+      <c r="I186" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J186" t="s">
@@ -13318,11 +13319,11 @@
       <c r="G187" s="2">
         <v>2.5578703703703705E-3</v>
       </c>
-      <c r="H187" s="7">
+      <c r="H187" s="6">
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="I187" s="6" t="s">
+      <c r="I187" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="J187" t="s">
@@ -13369,11 +13370,11 @@
       <c r="G188" s="2">
         <v>3.4375E-3</v>
       </c>
-      <c r="H188" s="7">
+      <c r="H188" s="6">
         <f t="shared" si="2"/>
         <v>297</v>
       </c>
-      <c r="I188" s="6" t="s">
+      <c r="I188" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J188" t="s">
@@ -13423,11 +13424,11 @@
       <c r="G189" s="2">
         <v>3.1597222222222222E-3</v>
       </c>
-      <c r="H189" s="7">
+      <c r="H189" s="6">
         <f t="shared" si="2"/>
         <v>273</v>
       </c>
-      <c r="I189" s="6" t="s">
+      <c r="I189" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J189" t="s">
@@ -13477,11 +13478,11 @@
       <c r="G190" s="2">
         <v>3.2754629629629631E-3</v>
       </c>
-      <c r="H190" s="7">
+      <c r="H190" s="6">
         <f t="shared" si="2"/>
         <v>283</v>
       </c>
-      <c r="I190" s="6" t="s">
+      <c r="I190" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J190" t="s">
@@ -13531,11 +13532,11 @@
       <c r="G191" s="2">
         <v>2.7893518518518519E-3</v>
       </c>
-      <c r="H191" s="7">
+      <c r="H191" s="6">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="I191" s="6" t="s">
+      <c r="I191" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J191" t="s">
@@ -13585,11 +13586,11 @@
       <c r="G192" s="2">
         <v>3.483796296296296E-3</v>
       </c>
-      <c r="H192" s="7">
+      <c r="H192" s="6">
         <f t="shared" si="2"/>
         <v>301</v>
       </c>
-      <c r="I192" s="6" t="s">
+      <c r="I192" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J192" t="s">
@@ -13636,11 +13637,11 @@
       <c r="G193" s="2">
         <v>2.9398148148148148E-3</v>
       </c>
-      <c r="H193" s="7">
+      <c r="H193" s="6">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="I193" s="6" t="s">
+      <c r="I193" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J193" t="s">
@@ -13687,11 +13688,11 @@
       <c r="G194" s="2">
         <v>3.0555555555555557E-3</v>
       </c>
-      <c r="H194" s="7">
+      <c r="H194" s="6">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="I194" s="6" t="s">
+      <c r="I194" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J194" t="s">
@@ -13741,11 +13742,11 @@
       <c r="G195" s="2">
         <v>2.3611111111111111E-3</v>
       </c>
-      <c r="H195" s="7">
+      <c r="H195" s="6">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="I195" s="6" t="s">
+      <c r="I195" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J195" t="s">
@@ -13795,11 +13796,11 @@
       <c r="G196" s="2">
         <v>2.4537037037037036E-3</v>
       </c>
-      <c r="H196" s="7">
+      <c r="H196" s="6">
         <f t="shared" ref="H196:H259" si="3">(HOUR(G196)*3600) + (MINUTE(G196)*60) + SECOND(G196)</f>
         <v>212</v>
       </c>
-      <c r="I196" s="6" t="s">
+      <c r="I196" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J196" t="s">
@@ -13849,11 +13850,11 @@
       <c r="G197" s="2">
         <v>3.0208333333333333E-3</v>
       </c>
-      <c r="H197" s="7">
+      <c r="H197" s="6">
         <f t="shared" si="3"/>
         <v>261</v>
       </c>
-      <c r="I197" s="6" t="s">
+      <c r="I197" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J197" t="s">
@@ -13900,11 +13901,11 @@
       <c r="G198" s="2">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="H198" s="7">
+      <c r="H198" s="6">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="I198" s="6" t="s">
+      <c r="I198" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="J198" t="s">
@@ -13951,11 +13952,11 @@
       <c r="G199" s="2">
         <v>2.7893518518518519E-3</v>
       </c>
-      <c r="H199" s="7">
+      <c r="H199" s="6">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
-      <c r="I199" s="6" t="s">
+      <c r="I199" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J199" t="s">
@@ -14005,11 +14006,11 @@
       <c r="G200" s="2">
         <v>2.673611111111111E-3</v>
       </c>
-      <c r="H200" s="7">
+      <c r="H200" s="6">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="I200" s="6" t="s">
+      <c r="I200" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J200" t="s">
@@ -14056,11 +14057,11 @@
       <c r="G201" s="2">
         <v>2.0254629629629629E-3</v>
       </c>
-      <c r="H201" s="7">
+      <c r="H201" s="6">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="I201" s="6" t="s">
+      <c r="I201" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J201" t="s">
@@ -14110,11 +14111,11 @@
       <c r="G202" s="2">
         <v>4.0624999999999993E-3</v>
       </c>
-      <c r="H202" s="7">
+      <c r="H202" s="6">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
-      <c r="I202" s="6" t="s">
+      <c r="I202" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J202" t="s">
@@ -14161,11 +14162,11 @@
       <c r="G203" s="2">
         <v>3.6342592592592594E-3</v>
       </c>
-      <c r="H203" s="7">
+      <c r="H203" s="6">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="I203" s="6" t="s">
+      <c r="I203" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J203" t="s">
@@ -14218,11 +14219,11 @@
       <c r="G204" s="2">
         <v>8.1018518518518516E-4</v>
       </c>
-      <c r="H204" s="7">
+      <c r="H204" s="6">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="I204" s="6" t="s">
+      <c r="I204" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J204" t="s">
@@ -14272,11 +14273,11 @@
       <c r="G205" s="2">
         <v>3.3564814814814811E-3</v>
       </c>
-      <c r="H205" s="7">
+      <c r="H205" s="6">
         <f t="shared" si="3"/>
         <v>290</v>
       </c>
-      <c r="I205" s="6" t="s">
+      <c r="I205" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J205" t="s">
@@ -14320,11 +14321,11 @@
       <c r="G206" s="2">
         <v>2.8819444444444444E-3</v>
       </c>
-      <c r="H206" s="7">
+      <c r="H206" s="6">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
-      <c r="I206" s="6" t="s">
+      <c r="I206" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J206" t="s">
@@ -14377,11 +14378,11 @@
       <c r="G207" s="2">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="H207" s="7">
+      <c r="H207" s="6">
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="I207" s="6" t="s">
+      <c r="I207" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J207" t="s">
@@ -14431,11 +14432,11 @@
       <c r="G208" s="2">
         <v>3.3217592592592591E-3</v>
       </c>
-      <c r="H208" s="7">
+      <c r="H208" s="6">
         <f t="shared" si="3"/>
         <v>287</v>
       </c>
-      <c r="I208" s="6" t="s">
+      <c r="I208" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J208" t="s">
@@ -14488,11 +14489,11 @@
       <c r="G209" s="2">
         <v>3.4375E-3</v>
       </c>
-      <c r="H209" s="7">
+      <c r="H209" s="6">
         <f t="shared" si="3"/>
         <v>297</v>
       </c>
-      <c r="I209" s="6" t="s">
+      <c r="I209" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="J209" t="s">
@@ -14545,11 +14546,11 @@
       <c r="G210" s="2">
         <v>3.1249999999999997E-3</v>
       </c>
-      <c r="H210" s="7">
+      <c r="H210" s="6">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="I210" s="6" t="s">
+      <c r="I210" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="J210" t="s">
@@ -14599,11 +14600,11 @@
       <c r="G211" s="2">
         <v>2.6504629629629625E-3</v>
       </c>
-      <c r="H211" s="7">
+      <c r="H211" s="6">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="I211" s="6" t="s">
+      <c r="I211" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="J211" t="s">
@@ -14653,11 +14654,11 @@
       <c r="G212" s="2">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="H212" s="7">
+      <c r="H212" s="6">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="I212" s="6" t="s">
+      <c r="I212" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="J212" t="s">
@@ -14707,11 +14708,11 @@
       <c r="G213" s="2">
         <v>1.689814814814815E-3</v>
       </c>
-      <c r="H213" s="7">
+      <c r="H213" s="6">
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="I213" s="6" t="s">
+      <c r="I213" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="J213" t="s">
@@ -14758,11 +14759,11 @@
       <c r="G214" s="2">
         <v>3.5185185185185185E-3</v>
       </c>
-      <c r="H214" s="7">
+      <c r="H214" s="6">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="I214" s="6" t="s">
+      <c r="I214" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="J214" t="s">
@@ -14812,11 +14813,11 @@
       <c r="G215" s="2">
         <v>2.3958333333333336E-3</v>
       </c>
-      <c r="H215" s="7">
+      <c r="H215" s="6">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="I215" s="6" t="s">
+      <c r="I215" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="J215" t="s">
@@ -14866,11 +14867,11 @@
       <c r="G216" s="2">
         <v>2.8472222222222219E-3</v>
       </c>
-      <c r="H216" s="7">
+      <c r="H216" s="6">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="I216" s="6" t="s">
+      <c r="I216" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="J216" t="s">
@@ -14917,11 +14918,11 @@
       <c r="G217" s="2">
         <v>2.2800925925925927E-3</v>
       </c>
-      <c r="H217" s="7">
+      <c r="H217" s="6">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="I217" s="6" t="s">
+      <c r="I217" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="J217" t="s">
@@ -14971,11 +14972,11 @@
       <c r="G218" s="2">
         <v>2.1759259259259258E-3</v>
       </c>
-      <c r="H218" s="7">
+      <c r="H218" s="6">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
-      <c r="I218" s="6" t="s">
+      <c r="I218" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="J218" t="s">
@@ -15022,11 +15023,11 @@
       <c r="G219" s="2">
         <v>4.1435185185185186E-3</v>
       </c>
-      <c r="H219" s="7">
+      <c r="H219" s="6">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="I219" s="6" t="s">
+      <c r="I219" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="J219" t="s">
@@ -15076,11 +15077,11 @@
       <c r="G220" s="2">
         <v>3.0439814814814821E-3</v>
       </c>
-      <c r="H220" s="7">
+      <c r="H220" s="6">
         <f t="shared" si="3"/>
         <v>263</v>
       </c>
-      <c r="I220" s="6" t="s">
+      <c r="I220" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="J220" t="s">
@@ -15133,11 +15134,11 @@
       <c r="G221" s="2">
         <v>3.2986111111111111E-3</v>
       </c>
-      <c r="H221" s="7">
+      <c r="H221" s="6">
         <f t="shared" si="3"/>
         <v>285</v>
       </c>
-      <c r="I221" s="6" t="s">
+      <c r="I221" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="J221" t="s">
@@ -15190,11 +15191,11 @@
       <c r="G222" s="2">
         <v>3.9583333333333337E-3</v>
       </c>
-      <c r="H222" s="7">
+      <c r="H222" s="6">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="I222" s="6" t="s">
+      <c r="I222" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="J222" t="s">
@@ -15247,11 +15248,11 @@
       <c r="G223" s="2">
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="H223" s="7">
+      <c r="H223" s="6">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="I223" s="6" t="s">
+      <c r="I223" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="J223" t="s">
@@ -15298,11 +15299,11 @@
       <c r="G224" s="2">
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="H224" s="7">
+      <c r="H224" s="6">
         <f t="shared" si="3"/>
         <v>268</v>
       </c>
-      <c r="I224" s="6" t="s">
+      <c r="I224" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="J224" t="s">
@@ -15355,11 +15356,11 @@
       <c r="G225" s="2">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="H225" s="7">
+      <c r="H225" s="6">
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="I225" s="6" t="s">
+      <c r="I225" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="J225" t="s">
@@ -15412,11 +15413,11 @@
       <c r="G226" s="2">
         <v>3.1944444444444442E-3</v>
       </c>
-      <c r="H226" s="7">
+      <c r="H226" s="6">
         <f t="shared" si="3"/>
         <v>276</v>
       </c>
-      <c r="I226" s="6" t="s">
+      <c r="I226" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="J226" t="s">
@@ -15469,11 +15470,11 @@
       <c r="G227" s="2">
         <v>3.8310185185185183E-3</v>
       </c>
-      <c r="H227" s="7">
+      <c r="H227" s="6">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="I227" s="6" t="s">
+      <c r="I227" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="J227" t="s">
@@ -15520,11 +15521,11 @@
       <c r="G228" s="2">
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="H228" s="7">
+      <c r="H228" s="6">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="I228" s="6" t="s">
+      <c r="I228" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="J228" t="s">
@@ -15574,11 +15575,11 @@
       <c r="G229" s="2">
         <v>3.7152777777777774E-3</v>
       </c>
-      <c r="H229" s="7">
+      <c r="H229" s="6">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="I229" s="6" t="s">
+      <c r="I229" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="J229" t="s">
@@ -15631,11 +15632,11 @@
       <c r="G230" s="2">
         <v>4.0046296296296297E-3</v>
       </c>
-      <c r="H230" s="7">
+      <c r="H230" s="6">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="I230" s="6" t="s">
+      <c r="I230" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="J230" t="s">
@@ -15682,11 +15683,11 @@
       <c r="G231" s="2">
         <v>3.1365740740740742E-3</v>
       </c>
-      <c r="H231" s="7">
+      <c r="H231" s="6">
         <f t="shared" si="3"/>
         <v>271</v>
       </c>
-      <c r="I231" s="6" t="s">
+      <c r="I231" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="J231" t="s">
@@ -15733,11 +15734,11 @@
       <c r="G232" s="2">
         <v>2.1759259259259258E-3</v>
       </c>
-      <c r="H232" s="7">
+      <c r="H232" s="6">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
-      <c r="I232" s="6" t="s">
+      <c r="I232" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="J232" t="s">
@@ -15784,11 +15785,11 @@
       <c r="G233" s="2">
         <v>2.2106481481481478E-3</v>
       </c>
-      <c r="H233" s="7">
+      <c r="H233" s="6">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
-      <c r="I233" s="6" t="s">
+      <c r="I233" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="J233" t="s">
@@ -15835,11 +15836,11 @@
       <c r="G234" s="2">
         <v>4.2708333333333339E-3</v>
       </c>
-      <c r="H234" s="7">
+      <c r="H234" s="6">
         <f t="shared" si="3"/>
         <v>369</v>
       </c>
-      <c r="I234" s="6" t="s">
+      <c r="I234" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="J234" t="s">
@@ -15883,11 +15884,11 @@
       <c r="G235" s="2">
         <v>9.9537037037037042E-4</v>
       </c>
-      <c r="H235" s="7">
+      <c r="H235" s="6">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="I235" s="6" t="s">
+      <c r="I235" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="J235" t="s">
@@ -15934,11 +15935,11 @@
       <c r="G236" s="2">
         <v>7.2800925925925915E-3</v>
       </c>
-      <c r="H236" s="7">
+      <c r="H236" s="6">
         <f t="shared" si="3"/>
         <v>629</v>
       </c>
-      <c r="I236" s="6" t="s">
+      <c r="I236" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="J236" t="s">
@@ -15985,11 +15986,11 @@
       <c r="G237" s="2">
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="H237" s="7">
+      <c r="H237" s="6">
         <f t="shared" si="3"/>
         <v>268</v>
       </c>
-      <c r="I237" s="6" t="s">
+      <c r="I237" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="J237" t="s">
@@ -16036,11 +16037,11 @@
       <c r="G238" s="2">
         <v>4.1319444444444442E-3</v>
       </c>
-      <c r="H238" s="7">
+      <c r="H238" s="6">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
-      <c r="I238" s="6" t="s">
+      <c r="I238" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="J238" t="s">
@@ -16087,11 +16088,11 @@
       <c r="G239" s="2">
         <v>5.0925925925925921E-3</v>
       </c>
-      <c r="H239" s="7">
+      <c r="H239" s="6">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="I239" s="6" t="s">
+      <c r="I239" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="J239" t="s">
@@ -16138,11 +16139,11 @@
       <c r="G240" s="2">
         <v>3.1134259259259257E-3</v>
       </c>
-      <c r="H240" s="7">
+      <c r="H240" s="6">
         <f t="shared" si="3"/>
         <v>269</v>
       </c>
-      <c r="I240" s="6" t="s">
+      <c r="I240" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="J240" t="s">
@@ -16192,11 +16193,11 @@
       <c r="G241" s="2">
         <v>3.1481481481481482E-3</v>
       </c>
-      <c r="H241" s="7">
+      <c r="H241" s="6">
         <f t="shared" si="3"/>
         <v>272</v>
       </c>
-      <c r="I241" s="6" t="s">
+      <c r="I241" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="J241" t="s">
@@ -16246,11 +16247,11 @@
       <c r="G242" s="2">
         <v>3.5416666666666665E-3</v>
       </c>
-      <c r="H242" s="7">
+      <c r="H242" s="6">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="I242" s="6" t="s">
+      <c r="I242" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="J242" t="s">
@@ -16297,11 +16298,11 @@
       <c r="G243" s="2">
         <v>2.9398148148148148E-3</v>
       </c>
-      <c r="H243" s="7">
+      <c r="H243" s="6">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="I243" s="6" t="s">
+      <c r="I243" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="J243" t="s">
@@ -16354,11 +16355,11 @@
       <c r="G244" s="2">
         <v>3.0787037037037037E-3</v>
       </c>
-      <c r="H244" s="7">
+      <c r="H244" s="6">
         <f t="shared" si="3"/>
         <v>266</v>
       </c>
-      <c r="I244" s="6" t="s">
+      <c r="I244" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="J244" t="s">
@@ -16408,11 +16409,11 @@
       <c r="G245" s="2">
         <v>3.1365740740740742E-3</v>
       </c>
-      <c r="H245" s="7">
+      <c r="H245" s="6">
         <f t="shared" si="3"/>
         <v>271</v>
       </c>
-      <c r="I245" s="6" t="s">
+      <c r="I245" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="J245" t="s">
@@ -16459,11 +16460,11 @@
       <c r="G246" s="2">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="H246" s="7">
+      <c r="H246" s="6">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="I246" s="6" t="s">
+      <c r="I246" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="J246" t="s">
@@ -16513,11 +16514,11 @@
       <c r="G247" s="2">
         <v>3.3101851851851851E-3</v>
       </c>
-      <c r="H247" s="7">
+      <c r="H247" s="6">
         <f t="shared" si="3"/>
         <v>286</v>
       </c>
-      <c r="I247" s="6" t="s">
+      <c r="I247" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="J247" t="s">
@@ -16564,11 +16565,11 @@
       <c r="G248" s="2">
         <v>3.1249999999999997E-3</v>
       </c>
-      <c r="H248" s="7">
+      <c r="H248" s="6">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="I248" s="6" t="s">
+      <c r="I248" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="J248" t="s">
@@ -16615,11 +16616,11 @@
       <c r="G249" s="2">
         <v>5.2546296296296299E-3</v>
       </c>
-      <c r="H249" s="7">
+      <c r="H249" s="6">
         <f t="shared" si="3"/>
         <v>454</v>
       </c>
-      <c r="I249" s="6" t="s">
+      <c r="I249" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J249" t="s">
@@ -16663,11 +16664,11 @@
       <c r="G250" s="2">
         <v>6.9328703703703696E-3</v>
       </c>
-      <c r="H250" s="7">
+      <c r="H250" s="6">
         <f t="shared" si="3"/>
         <v>599</v>
       </c>
-      <c r="I250" s="6" t="s">
+      <c r="I250" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J250" t="s">
@@ -16717,11 +16718,11 @@
       <c r="G251" s="2">
         <v>6.145833333333333E-3</v>
       </c>
-      <c r="H251" s="7">
+      <c r="H251" s="6">
         <f t="shared" si="3"/>
         <v>531</v>
       </c>
-      <c r="I251" s="6" t="s">
+      <c r="I251" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J251" t="s">
@@ -16771,11 +16772,11 @@
       <c r="G252" s="2">
         <v>4.5601851851851853E-3</v>
       </c>
-      <c r="H252" s="7">
+      <c r="H252" s="6">
         <f t="shared" si="3"/>
         <v>394</v>
       </c>
-      <c r="I252" s="6" t="s">
+      <c r="I252" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J252" t="s">
@@ -16822,11 +16823,11 @@
       <c r="G253" s="2">
         <v>3.2291666666666666E-3</v>
       </c>
-      <c r="H253" s="7">
+      <c r="H253" s="6">
         <f t="shared" si="3"/>
         <v>279</v>
       </c>
-      <c r="I253" s="6" t="s">
+      <c r="I253" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J253" t="s">
@@ -16876,11 +16877,11 @@
       <c r="G254" s="2">
         <v>3.8773148148148143E-3</v>
       </c>
-      <c r="H254" s="7">
+      <c r="H254" s="6">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
-      <c r="I254" s="6" t="s">
+      <c r="I254" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J254" t="s">
@@ -16930,11 +16931,11 @@
       <c r="G255" s="2">
         <v>3.0324074074074073E-3</v>
       </c>
-      <c r="H255" s="7">
+      <c r="H255" s="6">
         <f t="shared" si="3"/>
         <v>262</v>
       </c>
-      <c r="I255" s="6" t="s">
+      <c r="I255" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J255" t="s">
@@ -16981,11 +16982,11 @@
       <c r="G256" s="2">
         <v>2.9398148148148148E-3</v>
       </c>
-      <c r="H256" s="7">
+      <c r="H256" s="6">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="I256" s="6" t="s">
+      <c r="I256" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J256" t="s">
@@ -17035,11 +17036,11 @@
       <c r="G257" s="2">
         <v>4.2129629629629626E-3</v>
       </c>
-      <c r="H257" s="7">
+      <c r="H257" s="6">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
-      <c r="I257" s="6" t="s">
+      <c r="I257" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J257" t="s">
@@ -17086,11 +17087,11 @@
       <c r="G258" s="2">
         <v>4.9652777777777777E-3</v>
       </c>
-      <c r="H258" s="7">
+      <c r="H258" s="6">
         <f t="shared" si="3"/>
         <v>429</v>
       </c>
-      <c r="I258" s="6" t="s">
+      <c r="I258" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J258" t="s">
@@ -17137,11 +17138,11 @@
       <c r="G259" s="2">
         <v>3.1712962962962958E-3</v>
       </c>
-      <c r="H259" s="7">
+      <c r="H259" s="6">
         <f t="shared" si="3"/>
         <v>274</v>
       </c>
-      <c r="I259" s="6" t="s">
+      <c r="I259" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J259" t="s">
@@ -17188,11 +17189,11 @@
       <c r="G260" s="2">
         <v>9.3750000000000007E-4</v>
       </c>
-      <c r="H260" s="7">
+      <c r="H260" s="6">
         <f t="shared" ref="H260:H323" si="4">(HOUR(G260)*3600) + (MINUTE(G260)*60) + SECOND(G260)</f>
         <v>81</v>
       </c>
-      <c r="I260" s="6" t="s">
+      <c r="I260" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="J260" t="s">
@@ -17242,11 +17243,11 @@
       <c r="G261" s="2">
         <v>1.3541666666666667E-3</v>
       </c>
-      <c r="H261" s="7">
+      <c r="H261" s="6">
         <f t="shared" si="4"/>
         <v>117</v>
       </c>
-      <c r="I261" s="6" t="s">
+      <c r="I261" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J261" t="s">
@@ -17268,7 +17269,7 @@
         <v>202</v>
       </c>
       <c r="S261" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.3">
@@ -17293,11 +17294,11 @@
       <c r="G262" s="2">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="H262" s="7">
+      <c r="H262" s="6">
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
-      <c r="I262" s="6" t="s">
+      <c r="I262" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J262" t="s">
@@ -17322,7 +17323,7 @@
         <v>1023</v>
       </c>
       <c r="S262" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.3">
@@ -17347,11 +17348,11 @@
       <c r="G263" s="2">
         <v>4.1435185185185186E-3</v>
       </c>
-      <c r="H263" s="7">
+      <c r="H263" s="6">
         <f t="shared" si="4"/>
         <v>358</v>
       </c>
-      <c r="I263" s="6" t="s">
+      <c r="I263" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J263" t="s">
@@ -17376,7 +17377,7 @@
         <v>994</v>
       </c>
       <c r="S263" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.3">
@@ -17401,11 +17402,11 @@
       <c r="G264" s="2">
         <v>3.2175925925925926E-3</v>
       </c>
-      <c r="H264" s="7">
+      <c r="H264" s="6">
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
-      <c r="I264" s="6" t="s">
+      <c r="I264" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J264" t="s">
@@ -17427,7 +17428,7 @@
         <v>46</v>
       </c>
       <c r="S264" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.3">
@@ -17452,11 +17453,11 @@
       <c r="G265" s="2">
         <v>6.168981481481481E-3</v>
       </c>
-      <c r="H265" s="7">
+      <c r="H265" s="6">
         <f t="shared" si="4"/>
         <v>533</v>
       </c>
-      <c r="I265" s="6" t="s">
+      <c r="I265" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J265" t="s">
@@ -17481,7 +17482,7 @@
         <v>1023</v>
       </c>
       <c r="S265" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.3">
@@ -17506,11 +17507,11 @@
       <c r="G266" s="2">
         <v>3.5532407407407405E-3</v>
       </c>
-      <c r="H266" s="7">
+      <c r="H266" s="6">
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
-      <c r="I266" s="6" t="s">
+      <c r="I266" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J266" t="s">
@@ -17532,7 +17533,7 @@
         <v>46</v>
       </c>
       <c r="S266" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.3">
@@ -17557,11 +17558,11 @@
       <c r="G267" s="2">
         <v>4.7337962962962958E-3</v>
       </c>
-      <c r="H267" s="7">
+      <c r="H267" s="6">
         <f t="shared" si="4"/>
         <v>409</v>
       </c>
-      <c r="I267" s="6" t="s">
+      <c r="I267" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J267" t="s">
@@ -17583,7 +17584,7 @@
         <v>195</v>
       </c>
       <c r="S267" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.3">
@@ -17608,11 +17609,11 @@
       <c r="G268" s="2">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="H268" s="7">
+      <c r="H268" s="6">
         <f t="shared" si="4"/>
         <v>373</v>
       </c>
-      <c r="I268" s="6" t="s">
+      <c r="I268" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J268" t="s">
@@ -17634,7 +17635,7 @@
         <v>84</v>
       </c>
       <c r="S268" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.3">
@@ -17659,11 +17660,11 @@
       <c r="G269" s="2">
         <v>5.0231481481481481E-3</v>
       </c>
-      <c r="H269" s="7">
+      <c r="H269" s="6">
         <f t="shared" si="4"/>
         <v>434</v>
       </c>
-      <c r="I269" s="6" t="s">
+      <c r="I269" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J269" t="s">
@@ -17685,7 +17686,7 @@
         <v>1023</v>
       </c>
       <c r="S269" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.3">
@@ -17710,11 +17711,11 @@
       <c r="G270" s="2">
         <v>4.7685185185185183E-3</v>
       </c>
-      <c r="H270" s="7">
+      <c r="H270" s="6">
         <f t="shared" si="4"/>
         <v>412</v>
       </c>
-      <c r="I270" s="6" t="s">
+      <c r="I270" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J270" t="s">
@@ -17736,7 +17737,7 @@
         <v>46</v>
       </c>
       <c r="S270" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.3">
@@ -17761,11 +17762,11 @@
       <c r="G271" s="2">
         <v>5.162037037037037E-3</v>
       </c>
-      <c r="H271" s="7">
+      <c r="H271" s="6">
         <f t="shared" si="4"/>
         <v>446</v>
       </c>
-      <c r="I271" s="6" t="s">
+      <c r="I271" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J271" t="s">
@@ -17787,7 +17788,7 @@
         <v>46</v>
       </c>
       <c r="S271" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.3">
@@ -17812,11 +17813,11 @@
       <c r="G272" s="2">
         <v>4.2939814814814811E-3</v>
       </c>
-      <c r="H272" s="7">
+      <c r="H272" s="6">
         <f t="shared" si="4"/>
         <v>371</v>
       </c>
-      <c r="I272" s="6" t="s">
+      <c r="I272" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J272" t="s">
@@ -17838,7 +17839,7 @@
         <v>195</v>
       </c>
       <c r="S272" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.3">
@@ -17863,11 +17864,11 @@
       <c r="G273" s="2">
         <v>3.9699074074074072E-3</v>
       </c>
-      <c r="H273" s="7">
+      <c r="H273" s="6">
         <f t="shared" si="4"/>
         <v>343</v>
       </c>
-      <c r="I273" s="6" t="s">
+      <c r="I273" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="J273" t="s">
@@ -17889,7 +17890,7 @@
         <v>46</v>
       </c>
       <c r="S273" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.3">
@@ -17914,11 +17915,11 @@
       <c r="G274" s="2">
         <v>4.2939814814814811E-3</v>
       </c>
-      <c r="H274" s="7">
+      <c r="H274" s="6">
         <f t="shared" si="4"/>
         <v>371</v>
       </c>
-      <c r="I274" s="6" t="s">
+      <c r="I274" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J274" t="s">
@@ -17962,11 +17963,11 @@
       <c r="G275" s="2">
         <v>1.9560185185185184E-3</v>
       </c>
-      <c r="H275" s="7">
+      <c r="H275" s="6">
         <f t="shared" si="4"/>
         <v>169</v>
       </c>
-      <c r="I275" s="6" t="s">
+      <c r="I275" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J275" t="s">
@@ -18013,11 +18014,11 @@
       <c r="G276" s="2">
         <v>3.5532407407407405E-3</v>
       </c>
-      <c r="H276" s="7">
+      <c r="H276" s="6">
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
-      <c r="I276" s="6" t="s">
+      <c r="I276" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J276" t="s">
@@ -18064,11 +18065,11 @@
       <c r="G277" s="2">
         <v>4.2129629629629626E-3</v>
       </c>
-      <c r="H277" s="7">
+      <c r="H277" s="6">
         <f t="shared" si="4"/>
         <v>364</v>
       </c>
-      <c r="I277" s="6" t="s">
+      <c r="I277" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J277" t="s">
@@ -18115,11 +18116,11 @@
       <c r="G278" s="2">
         <v>3.3912037037037036E-3</v>
       </c>
-      <c r="H278" s="7">
+      <c r="H278" s="6">
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="I278" s="6" t="s">
+      <c r="I278" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J278" t="s">
@@ -18166,11 +18167,11 @@
       <c r="G279" s="2">
         <v>3.9814814814814817E-3</v>
       </c>
-      <c r="H279" s="7">
+      <c r="H279" s="6">
         <f t="shared" si="4"/>
         <v>344</v>
       </c>
-      <c r="I279" s="6" t="s">
+      <c r="I279" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J279" t="s">
@@ -18217,11 +18218,11 @@
       <c r="G280" s="2">
         <v>4.7800925925925919E-3</v>
       </c>
-      <c r="H280" s="7">
+      <c r="H280" s="6">
         <f t="shared" si="4"/>
         <v>413</v>
       </c>
-      <c r="I280" s="6" t="s">
+      <c r="I280" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J280" t="s">
@@ -18268,11 +18269,11 @@
       <c r="G281" s="2">
         <v>2.8472222222222219E-3</v>
       </c>
-      <c r="H281" s="7">
+      <c r="H281" s="6">
         <f t="shared" si="4"/>
         <v>246</v>
       </c>
-      <c r="I281" s="6" t="s">
+      <c r="I281" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J281" t="s">
@@ -18319,11 +18320,11 @@
       <c r="G282" s="2">
         <v>2.6967592592592594E-3</v>
       </c>
-      <c r="H282" s="7">
+      <c r="H282" s="6">
         <f t="shared" si="4"/>
         <v>233</v>
       </c>
-      <c r="I282" s="6" t="s">
+      <c r="I282" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J282" t="s">
@@ -18370,11 +18371,11 @@
       <c r="G283" s="2">
         <v>2.5810185185185185E-3</v>
       </c>
-      <c r="H283" s="7">
+      <c r="H283" s="6">
         <f t="shared" si="4"/>
         <v>223</v>
       </c>
-      <c r="I283" s="6" t="s">
+      <c r="I283" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J283" t="s">
@@ -18421,11 +18422,11 @@
       <c r="G284" s="2">
         <v>1.712962962962963E-3</v>
       </c>
-      <c r="H284" s="7">
+      <c r="H284" s="6">
         <f t="shared" si="4"/>
         <v>148</v>
       </c>
-      <c r="I284" s="6" t="s">
+      <c r="I284" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="J284" t="s">
@@ -18472,11 +18473,11 @@
       <c r="G285" s="2">
         <v>4.0856481481481481E-3</v>
       </c>
-      <c r="H285" s="7">
+      <c r="H285" s="6">
         <f t="shared" si="4"/>
         <v>353</v>
       </c>
-      <c r="I285" s="6" t="s">
+      <c r="I285" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J285" t="s">
@@ -18526,11 +18527,11 @@
       <c r="G286" s="2">
         <v>4.0162037037037033E-3</v>
       </c>
-      <c r="H286" s="7">
+      <c r="H286" s="6">
         <f t="shared" si="4"/>
         <v>347</v>
       </c>
-      <c r="I286" s="6" t="s">
+      <c r="I286" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J286" t="s">
@@ -18583,11 +18584,11 @@
       <c r="G287" s="2">
         <v>3.2986111111111111E-3</v>
       </c>
-      <c r="H287" s="7">
+      <c r="H287" s="6">
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="I287" s="6" t="s">
+      <c r="I287" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J287" t="s">
@@ -18640,11 +18641,11 @@
       <c r="G288" s="2">
         <v>3.2638888888888891E-3</v>
       </c>
-      <c r="H288" s="7">
+      <c r="H288" s="6">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="I288" s="6" t="s">
+      <c r="I288" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J288" t="s">
@@ -18694,11 +18695,11 @@
       <c r="G289" s="2">
         <v>3.4490740740740745E-3</v>
       </c>
-      <c r="H289" s="7">
+      <c r="H289" s="6">
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="I289" s="6" t="s">
+      <c r="I289" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J289" t="s">
@@ -18751,11 +18752,11 @@
       <c r="G290" s="2">
         <v>4.0972222222222226E-3</v>
       </c>
-      <c r="H290" s="7">
+      <c r="H290" s="6">
         <f t="shared" si="4"/>
         <v>354</v>
       </c>
-      <c r="I290" s="6" t="s">
+      <c r="I290" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J290" t="s">
@@ -18808,11 +18809,11 @@
       <c r="G291" s="2">
         <v>3.0324074074074073E-3</v>
       </c>
-      <c r="H291" s="7">
+      <c r="H291" s="6">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
-      <c r="I291" s="6" t="s">
+      <c r="I291" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J291" t="s">
@@ -18865,11 +18866,11 @@
       <c r="G292" s="2">
         <v>3.7962962962962963E-3</v>
       </c>
-      <c r="H292" s="7">
+      <c r="H292" s="6">
         <f t="shared" si="4"/>
         <v>328</v>
       </c>
-      <c r="I292" s="6" t="s">
+      <c r="I292" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J292" t="s">
@@ -18919,11 +18920,11 @@
       <c r="G293" s="2">
         <v>3.1944444444444442E-3</v>
       </c>
-      <c r="H293" s="7">
+      <c r="H293" s="6">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="I293" s="6" t="s">
+      <c r="I293" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J293" t="s">
@@ -18976,11 +18977,11 @@
       <c r="G294" s="2">
         <v>3.37962962962963E-3</v>
       </c>
-      <c r="H294" s="7">
+      <c r="H294" s="6">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="I294" s="6" t="s">
+      <c r="I294" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J294" t="s">
@@ -19033,11 +19034,11 @@
       <c r="G295" s="2">
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="H295" s="7">
+      <c r="H295" s="6">
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
-      <c r="I295" s="6" t="s">
+      <c r="I295" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J295" t="s">
@@ -19084,11 +19085,11 @@
       <c r="G296" s="2">
         <v>4.3749999999999995E-3</v>
       </c>
-      <c r="H296" s="7">
+      <c r="H296" s="6">
         <f t="shared" si="4"/>
         <v>378</v>
       </c>
-      <c r="I296" s="6" t="s">
+      <c r="I296" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J296" t="s">
@@ -19138,11 +19139,11 @@
       <c r="G297" s="2">
         <v>8.6458333333333335E-3</v>
       </c>
-      <c r="H297" s="7">
+      <c r="H297" s="6">
         <f t="shared" si="4"/>
         <v>747</v>
       </c>
-      <c r="I297" s="6" t="s">
+      <c r="I297" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J297" t="s">
@@ -19189,11 +19190,11 @@
       <c r="G298" s="2">
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="H298" s="7">
+      <c r="H298" s="6">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="I298" s="6" t="s">
+      <c r="I298" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="J298" t="s">
@@ -19243,11 +19244,11 @@
       <c r="G299" s="2">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="H299" s="7">
+      <c r="H299" s="6">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="I299" s="6" t="s">
+      <c r="I299" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J299" t="s">
@@ -19294,11 +19295,11 @@
       <c r="G300" s="2">
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="H300" s="7">
+      <c r="H300" s="6">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="I300" s="6" t="s">
+      <c r="I300" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J300" t="s">
@@ -19351,11 +19352,11 @@
       <c r="G301" s="2">
         <v>2.9513888888888888E-3</v>
       </c>
-      <c r="H301" s="7">
+      <c r="H301" s="6">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="I301" s="6" t="s">
+      <c r="I301" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J301" t="s">
@@ -19408,11 +19409,11 @@
       <c r="G302" s="2">
         <v>2.9976851851851848E-3</v>
       </c>
-      <c r="H302" s="7">
+      <c r="H302" s="6">
         <f t="shared" si="4"/>
         <v>259</v>
       </c>
-      <c r="I302" s="6" t="s">
+      <c r="I302" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J302" t="s">
@@ -19465,11 +19466,11 @@
       <c r="G303" s="2">
         <v>2.673611111111111E-3</v>
       </c>
-      <c r="H303" s="7">
+      <c r="H303" s="6">
         <f t="shared" si="4"/>
         <v>231</v>
       </c>
-      <c r="I303" s="6" t="s">
+      <c r="I303" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J303" t="s">
@@ -19522,11 +19523,11 @@
       <c r="G304" s="2">
         <v>4.4907407407407405E-3</v>
       </c>
-      <c r="H304" s="7">
+      <c r="H304" s="6">
         <f t="shared" si="4"/>
         <v>388</v>
       </c>
-      <c r="I304" s="6" t="s">
+      <c r="I304" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J304" t="s">
@@ -19576,11 +19577,11 @@
       <c r="G305" s="2">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="H305" s="7">
+      <c r="H305" s="6">
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="I305" s="6" t="s">
+      <c r="I305" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J305" t="s">
@@ -19627,11 +19628,11 @@
       <c r="G306" s="2">
         <v>3.1481481481481482E-3</v>
       </c>
-      <c r="H306" s="7">
+      <c r="H306" s="6">
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
-      <c r="I306" s="6" t="s">
+      <c r="I306" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J306" t="s">
@@ -19684,11 +19685,11 @@
       <c r="G307" s="2">
         <v>3.1828703703703702E-3</v>
       </c>
-      <c r="H307" s="7">
+      <c r="H307" s="6">
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
-      <c r="I307" s="6" t="s">
+      <c r="I307" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J307" t="s">
@@ -19741,11 +19742,11 @@
       <c r="G308" s="2">
         <v>3.2523148148148151E-3</v>
       </c>
-      <c r="H308" s="7">
+      <c r="H308" s="6">
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="I308" s="6" t="s">
+      <c r="I308" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J308" t="s">
@@ -19798,11 +19799,11 @@
       <c r="G309" s="2">
         <v>3.1712962962962958E-3</v>
       </c>
-      <c r="H309" s="7">
+      <c r="H309" s="6">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="I309" s="6" t="s">
+      <c r="I309" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J309" t="s">
@@ -19855,11 +19856,11 @@
       <c r="G310" s="2">
         <v>3.2291666666666666E-3</v>
       </c>
-      <c r="H310" s="7">
+      <c r="H310" s="6">
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
-      <c r="I310" s="6" t="s">
+      <c r="I310" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J310" t="s">
@@ -19912,11 +19913,11 @@
       <c r="G311" s="2">
         <v>3.2986111111111111E-3</v>
       </c>
-      <c r="H311" s="7">
+      <c r="H311" s="6">
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="I311" s="6" t="s">
+      <c r="I311" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J311" t="s">
@@ -19966,11 +19967,11 @@
       <c r="G312" s="2">
         <v>3.2060185185185191E-3</v>
       </c>
-      <c r="H312" s="7">
+      <c r="H312" s="6">
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
-      <c r="I312" s="6" t="s">
+      <c r="I312" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J312" t="s">
@@ -20023,11 +20024,11 @@
       <c r="G313" s="2">
         <v>4.0624999999999993E-3</v>
       </c>
-      <c r="H313" s="7">
+      <c r="H313" s="6">
         <f t="shared" si="4"/>
         <v>351</v>
       </c>
-      <c r="I313" s="6" t="s">
+      <c r="I313" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J313" t="s">
@@ -20080,11 +20081,11 @@
       <c r="G314" s="2">
         <v>2.8935185185185188E-3</v>
       </c>
-      <c r="H314" s="7">
+      <c r="H314" s="6">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="I314" s="6" t="s">
+      <c r="I314" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="J314" t="s">
@@ -20134,11 +20135,11 @@
       <c r="G315" s="2">
         <v>3.3101851851851851E-3</v>
       </c>
-      <c r="H315" s="7">
+      <c r="H315" s="6">
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
-      <c r="I315" s="6" t="s">
+      <c r="I315" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="J315" t="s">
@@ -20188,11 +20189,11 @@
       <c r="G316" s="2">
         <v>3.0208333333333333E-3</v>
       </c>
-      <c r="H316" s="7">
+      <c r="H316" s="6">
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
-      <c r="I316" s="6" t="s">
+      <c r="I316" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="J316" t="s">
@@ -20239,11 +20240,11 @@
       <c r="G317" s="2">
         <v>3.483796296296296E-3</v>
       </c>
-      <c r="H317" s="7">
+      <c r="H317" s="6">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="I317" s="6" t="s">
+      <c r="I317" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="J317" t="s">
@@ -20290,11 +20291,11 @@
       <c r="G318" s="2">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="H318" s="7">
+      <c r="H318" s="6">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="I318" s="6" t="s">
+      <c r="I318" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="J318" t="s">
@@ -20341,11 +20342,11 @@
       <c r="G319" s="2">
         <v>4.3981481481481484E-3</v>
       </c>
-      <c r="H319" s="7">
+      <c r="H319" s="6">
         <f t="shared" si="4"/>
         <v>380</v>
       </c>
-      <c r="I319" s="6" t="s">
+      <c r="I319" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="J319" t="s">
@@ -20392,11 +20393,11 @@
       <c r="G320" s="2">
         <v>4.0277777777777777E-3</v>
       </c>
-      <c r="H320" s="7">
+      <c r="H320" s="6">
         <f t="shared" si="4"/>
         <v>348</v>
       </c>
-      <c r="I320" s="6" t="s">
+      <c r="I320" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="J320" t="s">
@@ -20443,11 +20444,11 @@
       <c r="G321" s="2">
         <v>3.5069444444444445E-3</v>
       </c>
-      <c r="H321" s="7">
+      <c r="H321" s="6">
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
-      <c r="I321" s="6" t="s">
+      <c r="I321" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="J321" t="s">
@@ -20491,11 +20492,11 @@
       <c r="G322" s="2">
         <v>2.4652777777777776E-3</v>
       </c>
-      <c r="H322" s="7">
+      <c r="H322" s="6">
         <f t="shared" si="4"/>
         <v>213</v>
       </c>
-      <c r="I322" s="6" t="s">
+      <c r="I322" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="J322" t="s">
@@ -20539,11 +20540,11 @@
       <c r="G323" s="2">
         <v>3.8888888888888883E-3</v>
       </c>
-      <c r="H323" s="7">
+      <c r="H323" s="6">
         <f t="shared" si="4"/>
         <v>336</v>
       </c>
-      <c r="I323" s="6" t="s">
+      <c r="I323" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="J323" t="s">
@@ -20587,11 +20588,11 @@
       <c r="G324" s="2">
         <v>3.1365740740740742E-3</v>
       </c>
-      <c r="H324" s="7">
+      <c r="H324" s="6">
         <f t="shared" ref="H324:H387" si="5">(HOUR(G324)*3600) + (MINUTE(G324)*60) + SECOND(G324)</f>
         <v>271</v>
       </c>
-      <c r="I324" s="6" t="s">
+      <c r="I324" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="J324" t="s">
@@ -20638,11 +20639,11 @@
       <c r="G325" s="2">
         <v>2.8703703703703708E-3</v>
       </c>
-      <c r="H325" s="7">
+      <c r="H325" s="6">
         <f t="shared" si="5"/>
         <v>248</v>
       </c>
-      <c r="I325" s="6" t="s">
+      <c r="I325" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J325" t="s">
@@ -20689,11 +20690,11 @@
       <c r="G326" s="2">
         <v>2.9745370370370373E-3</v>
       </c>
-      <c r="H326" s="7">
+      <c r="H326" s="6">
         <f t="shared" si="5"/>
         <v>257</v>
       </c>
-      <c r="I326" s="6" t="s">
+      <c r="I326" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J326" t="s">
@@ -20740,11 +20741,11 @@
       <c r="G327" s="2">
         <v>2.9282407407407412E-3</v>
       </c>
-      <c r="H327" s="7">
+      <c r="H327" s="6">
         <f t="shared" si="5"/>
         <v>253</v>
       </c>
-      <c r="I327" s="6" t="s">
+      <c r="I327" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J327" t="s">
@@ -20797,11 +20798,11 @@
       <c r="G328" s="2">
         <v>3.2060185185185191E-3</v>
       </c>
-      <c r="H328" s="7">
+      <c r="H328" s="6">
         <f t="shared" si="5"/>
         <v>277</v>
       </c>
-      <c r="I328" s="6" t="s">
+      <c r="I328" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J328" t="s">
@@ -20854,11 +20855,11 @@
       <c r="G329" s="2">
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="H329" s="7">
+      <c r="H329" s="6">
         <f t="shared" si="5"/>
         <v>252</v>
       </c>
-      <c r="I329" s="6" t="s">
+      <c r="I329" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J329" t="s">
@@ -20911,11 +20912,11 @@
       <c r="G330" s="2">
         <v>2.8009259259259259E-3</v>
       </c>
-      <c r="H330" s="7">
+      <c r="H330" s="6">
         <f t="shared" si="5"/>
         <v>242</v>
       </c>
-      <c r="I330" s="6" t="s">
+      <c r="I330" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J330" t="s">
@@ -20968,11 +20969,11 @@
       <c r="G331" s="2">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="H331" s="7">
+      <c r="H331" s="6">
         <f t="shared" si="5"/>
         <v>198</v>
       </c>
-      <c r="I331" s="6" t="s">
+      <c r="I331" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J331" t="s">
@@ -21022,11 +21023,11 @@
       <c r="G332" s="2">
         <v>3.5995370370370369E-3</v>
       </c>
-      <c r="H332" s="7">
+      <c r="H332" s="6">
         <f t="shared" si="5"/>
         <v>311</v>
       </c>
-      <c r="I332" s="6" t="s">
+      <c r="I332" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J332" t="s">
@@ -21079,11 +21080,11 @@
       <c r="G333" s="2">
         <v>2.2337962962962967E-3</v>
       </c>
-      <c r="H333" s="7">
+      <c r="H333" s="6">
         <f t="shared" si="5"/>
         <v>193</v>
       </c>
-      <c r="I333" s="6" t="s">
+      <c r="I333" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J333" t="s">
@@ -21133,11 +21134,11 @@
       <c r="G334" s="2">
         <v>2.6967592592592594E-3</v>
       </c>
-      <c r="H334" s="7">
+      <c r="H334" s="6">
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="I334" s="6" t="s">
+      <c r="I334" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J334" t="s">
@@ -21190,11 +21191,11 @@
       <c r="G335" s="2">
         <v>3.2870370370370367E-3</v>
       </c>
-      <c r="H335" s="7">
+      <c r="H335" s="6">
         <f t="shared" si="5"/>
         <v>284</v>
       </c>
-      <c r="I335" s="6" t="s">
+      <c r="I335" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J335" t="s">
@@ -21247,11 +21248,11 @@
       <c r="G336" s="2">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="H336" s="7">
+      <c r="H336" s="6">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="I336" s="6" t="s">
+      <c r="I336" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J336" t="s">
@@ -21304,11 +21305,11 @@
       <c r="G337" s="2">
         <v>2.8124999999999995E-3</v>
       </c>
-      <c r="H337" s="7">
-        <f t="shared" si="5"/>
+      <c r="H337" s="6">
+        <f t="shared" ref="H337:H353" si="6">(HOUR(G337)*3600) + (MINUTE(G337)*60) + SECOND(G337)</f>
         <v>243</v>
       </c>
-      <c r="I337" s="6" t="s">
+      <c r="I337" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="J337" t="s">
@@ -21355,14 +21356,14 @@
       <c r="F338" t="s">
         <v>935</v>
       </c>
-      <c r="G338" s="5">
-        <v>0.16041666666666668</v>
-      </c>
-      <c r="H338" s="7">
-        <f t="shared" si="5"/>
-        <v>13860</v>
-      </c>
-      <c r="I338" s="6" t="s">
+      <c r="G338" s="2">
+        <v>2.673611111111111E-3</v>
+      </c>
+      <c r="H338" s="6">
+        <f t="shared" si="6"/>
+        <v>231</v>
+      </c>
+      <c r="I338" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J338" t="s">
@@ -21412,14 +21413,14 @@
       <c r="F339" t="s">
         <v>938</v>
       </c>
-      <c r="G339" s="5">
-        <v>0.23472222222222219</v>
-      </c>
-      <c r="H339" s="7">
-        <f t="shared" si="5"/>
-        <v>20280</v>
-      </c>
-      <c r="I339" s="6" t="s">
+      <c r="G339" s="2">
+        <v>3.9120370370370368E-3</v>
+      </c>
+      <c r="H339" s="6">
+        <f t="shared" si="6"/>
+        <v>338</v>
+      </c>
+      <c r="I339" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J339" t="s">
@@ -21469,14 +21470,14 @@
       <c r="F340" t="s">
         <v>941</v>
       </c>
-      <c r="G340" s="5">
-        <v>0.19652777777777777</v>
-      </c>
-      <c r="H340" s="7">
-        <f t="shared" si="5"/>
-        <v>16980</v>
-      </c>
-      <c r="I340" s="6" t="s">
+      <c r="G340" s="2">
+        <v>3.2754629629629631E-3</v>
+      </c>
+      <c r="H340" s="6">
+        <f t="shared" si="6"/>
+        <v>283</v>
+      </c>
+      <c r="I340" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J340" t="s">
@@ -21526,14 +21527,14 @@
       <c r="F341" t="s">
         <v>943</v>
       </c>
-      <c r="G341" s="5">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="H341" s="7">
-        <f t="shared" si="5"/>
-        <v>21720</v>
-      </c>
-      <c r="I341" s="6" t="s">
+      <c r="G341" s="2">
+        <v>4.1898148148148146E-3</v>
+      </c>
+      <c r="H341" s="6">
+        <f t="shared" si="6"/>
+        <v>362</v>
+      </c>
+      <c r="I341" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J341" t="s">
@@ -21583,14 +21584,14 @@
       <c r="F342" t="s">
         <v>948</v>
       </c>
-      <c r="G342" s="5">
-        <v>0.16944444444444443</v>
-      </c>
-      <c r="H342" s="7">
-        <f t="shared" si="5"/>
-        <v>14640</v>
-      </c>
-      <c r="I342" s="6" t="s">
+      <c r="G342" s="2">
+        <v>2.8240740740740739E-3</v>
+      </c>
+      <c r="H342" s="6">
+        <f t="shared" si="6"/>
+        <v>244</v>
+      </c>
+      <c r="I342" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J342" t="s">
@@ -21640,14 +21641,14 @@
       <c r="F343" t="s">
         <v>951</v>
       </c>
-      <c r="G343" s="5">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="H343" s="7">
-        <f t="shared" si="5"/>
-        <v>15600</v>
-      </c>
-      <c r="I343" s="6" t="s">
+      <c r="G343" s="2">
+        <v>3.0092592592592588E-3</v>
+      </c>
+      <c r="H343" s="6">
+        <f t="shared" si="6"/>
+        <v>260</v>
+      </c>
+      <c r="I343" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J343" t="s">
@@ -21697,14 +21698,14 @@
       <c r="F344" t="s">
         <v>954</v>
       </c>
-      <c r="G344" s="5">
-        <v>0.22430555555555556</v>
-      </c>
-      <c r="H344" s="7">
-        <f t="shared" si="5"/>
-        <v>19380</v>
-      </c>
-      <c r="I344" s="6" t="s">
+      <c r="G344" s="2">
+        <v>3.7384259259259263E-3</v>
+      </c>
+      <c r="H344" s="6">
+        <f t="shared" si="6"/>
+        <v>323</v>
+      </c>
+      <c r="I344" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J344" t="s">
@@ -21754,14 +21755,14 @@
       <c r="F345" t="s">
         <v>957</v>
       </c>
-      <c r="G345" s="5">
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="H345" s="7">
-        <f t="shared" si="5"/>
-        <v>18360</v>
-      </c>
-      <c r="I345" s="6" t="s">
+      <c r="G345" s="2">
+        <v>3.5416666666666665E-3</v>
+      </c>
+      <c r="H345" s="6">
+        <f t="shared" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="I345" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J345" t="s">
@@ -21811,14 +21812,14 @@
       <c r="F346" t="s">
         <v>960</v>
       </c>
-      <c r="G346" s="5">
-        <v>0.14097222222222222</v>
-      </c>
-      <c r="H346" s="7">
-        <f t="shared" si="5"/>
-        <v>12180</v>
-      </c>
-      <c r="I346" s="6" t="s">
+      <c r="G346" s="2">
+        <v>2.3495370370370371E-3</v>
+      </c>
+      <c r="H346" s="6">
+        <f t="shared" si="6"/>
+        <v>203</v>
+      </c>
+      <c r="I346" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J346" t="s">
@@ -21868,14 +21869,14 @@
       <c r="F347" t="s">
         <v>963</v>
       </c>
-      <c r="G347" s="5">
-        <v>0.15347222222222223</v>
-      </c>
-      <c r="H347" s="7">
-        <f t="shared" si="5"/>
-        <v>13260</v>
-      </c>
-      <c r="I347" s="6" t="s">
+      <c r="G347" s="2">
+        <v>2.5578703703703705E-3</v>
+      </c>
+      <c r="H347" s="6">
+        <f t="shared" si="6"/>
+        <v>221</v>
+      </c>
+      <c r="I347" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J347" t="s">
@@ -21925,14 +21926,14 @@
       <c r="F348" t="s">
         <v>967</v>
       </c>
-      <c r="G348" s="5">
-        <v>0.20277777777777781</v>
-      </c>
-      <c r="H348" s="7">
-        <f t="shared" si="5"/>
-        <v>17520</v>
-      </c>
-      <c r="I348" s="6" t="s">
+      <c r="G348" s="2">
+        <v>3.37962962962963E-3</v>
+      </c>
+      <c r="H348" s="6">
+        <f t="shared" si="6"/>
+        <v>292</v>
+      </c>
+      <c r="I348" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J348" t="s">
@@ -21982,14 +21983,14 @@
       <c r="F349" t="s">
         <v>970</v>
       </c>
-      <c r="G349" s="5">
-        <v>0.16388888888888889</v>
-      </c>
-      <c r="H349" s="7">
-        <f t="shared" si="5"/>
-        <v>14160</v>
-      </c>
-      <c r="I349" s="6" t="s">
+      <c r="G349" s="2">
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="H349" s="6">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="I349" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="J349" t="s">
@@ -22042,11 +22043,11 @@
       <c r="G350" s="2">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="H350" s="7">
-        <f t="shared" si="5"/>
+      <c r="H350" s="6">
+        <f t="shared" si="6"/>
         <v>375</v>
       </c>
-      <c r="I350" s="6" t="s">
+      <c r="I350" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J350" t="s">
@@ -22093,11 +22094,11 @@
       <c r="G351" s="2">
         <v>2.673611111111111E-3</v>
       </c>
-      <c r="H351" s="7">
-        <f t="shared" si="5"/>
+      <c r="H351" s="6">
+        <f t="shared" si="6"/>
         <v>231</v>
       </c>
-      <c r="I351" s="6" t="s">
+      <c r="I351" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J351" t="s">
@@ -22144,11 +22145,11 @@
       <c r="G352" s="2">
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="H352" s="7">
-        <f t="shared" si="5"/>
+      <c r="H352" s="6">
+        <f t="shared" si="6"/>
         <v>288</v>
       </c>
-      <c r="I352" s="6" t="s">
+      <c r="I352" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J352" t="s">
@@ -22195,11 +22196,11 @@
       <c r="G353" s="2">
         <v>1.8287037037037037E-3</v>
       </c>
-      <c r="H353" s="7">
-        <f t="shared" si="5"/>
+      <c r="H353" s="6">
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="I353" s="6" t="s">
+      <c r="I353" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J353" t="s">
@@ -22246,11 +22247,11 @@
       <c r="G354" s="2">
         <v>3.4953703703703705E-3</v>
       </c>
-      <c r="H354" s="7">
+      <c r="H354" s="6">
         <f t="shared" si="5"/>
         <v>302</v>
       </c>
-      <c r="I354" s="6" t="s">
+      <c r="I354" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J354" t="s">
@@ -22294,11 +22295,11 @@
       <c r="G355" s="2">
         <v>3.483796296296296E-3</v>
       </c>
-      <c r="H355" s="7">
+      <c r="H355" s="6">
         <f t="shared" si="5"/>
         <v>301</v>
       </c>
-      <c r="I355" s="6" t="s">
+      <c r="I355" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J355" t="s">
@@ -22345,11 +22346,11 @@
       <c r="G356" s="2">
         <v>3.5416666666666665E-3</v>
       </c>
-      <c r="H356" s="7">
+      <c r="H356" s="6">
         <f t="shared" si="5"/>
         <v>306</v>
       </c>
-      <c r="I356" s="6" t="s">
+      <c r="I356" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J356" t="s">
@@ -22396,11 +22397,11 @@
       <c r="G357" s="2">
         <v>7.175925925925927E-4</v>
       </c>
-      <c r="H357" s="7">
+      <c r="H357" s="6">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="I357" s="6" t="s">
+      <c r="I357" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J357" t="s">
@@ -22447,11 +22448,11 @@
       <c r="G358" s="2">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="H358" s="7">
+      <c r="H358" s="6">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="I358" s="6" t="s">
+      <c r="I358" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J358" t="s">
@@ -22498,11 +22499,11 @@
       <c r="G359" s="2">
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="H359" s="7">
+      <c r="H359" s="6">
         <f t="shared" si="5"/>
         <v>379</v>
       </c>
-      <c r="I359" s="6" t="s">
+      <c r="I359" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J359" t="s">
@@ -22549,11 +22550,11 @@
       <c r="G360" s="2">
         <v>3.3564814814814811E-3</v>
       </c>
-      <c r="H360" s="7">
+      <c r="H360" s="6">
         <f t="shared" si="5"/>
         <v>290</v>
       </c>
-      <c r="I360" s="6" t="s">
+      <c r="I360" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J360" t="s">
@@ -22600,11 +22601,11 @@
       <c r="G361" s="2">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="H361" s="7">
+      <c r="H361" s="6">
         <f t="shared" si="5"/>
         <v>322</v>
       </c>
-      <c r="I361" s="6" t="s">
+      <c r="I361" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J361" t="s">
@@ -22651,11 +22652,11 @@
       <c r="G362" s="2">
         <v>2.1759259259259258E-3</v>
       </c>
-      <c r="H362" s="7">
+      <c r="H362" s="6">
         <f t="shared" si="5"/>
         <v>188</v>
       </c>
-      <c r="I362" s="6" t="s">
+      <c r="I362" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="J362" t="s">
@@ -22702,11 +22703,11 @@
       <c r="G363" s="2">
         <v>2.7199074074074074E-3</v>
       </c>
-      <c r="H363" s="7">
+      <c r="H363" s="6">
         <f t="shared" si="5"/>
         <v>235</v>
       </c>
-      <c r="I363" s="6" t="s">
+      <c r="I363" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J363" t="s">
@@ -22759,11 +22760,11 @@
       <c r="G364" s="2">
         <v>2.8935185185185188E-3</v>
       </c>
-      <c r="H364" s="7">
+      <c r="H364" s="6">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="I364" s="6" t="s">
+      <c r="I364" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J364" t="s">
@@ -22816,11 +22817,11 @@
       <c r="G365" s="2">
         <v>2.5115740740740741E-3</v>
       </c>
-      <c r="H365" s="7">
+      <c r="H365" s="6">
         <f t="shared" si="5"/>
         <v>217</v>
       </c>
-      <c r="I365" s="6" t="s">
+      <c r="I365" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J365" t="s">
@@ -22873,11 +22874,11 @@
       <c r="G366" s="2">
         <v>2.8819444444444444E-3</v>
       </c>
-      <c r="H366" s="7">
+      <c r="H366" s="6">
         <f t="shared" si="5"/>
         <v>249</v>
       </c>
-      <c r="I366" s="6" t="s">
+      <c r="I366" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J366" t="s">
@@ -22930,11 +22931,11 @@
       <c r="G367" s="2">
         <v>3.1134259259259257E-3</v>
       </c>
-      <c r="H367" s="7">
+      <c r="H367" s="6">
         <f t="shared" si="5"/>
         <v>269</v>
       </c>
-      <c r="I367" s="6" t="s">
+      <c r="I367" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J367" t="s">
@@ -22987,11 +22988,11 @@
       <c r="G368" s="2">
         <v>2.9629629629629628E-3</v>
       </c>
-      <c r="H368" s="7">
+      <c r="H368" s="6">
         <f t="shared" si="5"/>
         <v>256</v>
       </c>
-      <c r="I368" s="6" t="s">
+      <c r="I368" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J368" t="s">
@@ -23044,11 +23045,11 @@
       <c r="G369" s="2">
         <v>2.7893518518518519E-3</v>
       </c>
-      <c r="H369" s="7">
+      <c r="H369" s="6">
         <f t="shared" si="5"/>
         <v>241</v>
       </c>
-      <c r="I369" s="6" t="s">
+      <c r="I369" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J369" t="s">
@@ -23101,11 +23102,11 @@
       <c r="G370" s="2">
         <v>2.3842592592592591E-3</v>
       </c>
-      <c r="H370" s="7">
+      <c r="H370" s="6">
         <f t="shared" si="5"/>
         <v>206</v>
       </c>
-      <c r="I370" s="6" t="s">
+      <c r="I370" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J370" t="s">
@@ -23155,11 +23156,11 @@
       <c r="G371" s="2">
         <v>2.3379629629629631E-3</v>
       </c>
-      <c r="H371" s="7">
+      <c r="H371" s="6">
         <f t="shared" si="5"/>
         <v>202</v>
       </c>
-      <c r="I371" s="6" t="s">
+      <c r="I371" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J371" t="s">
@@ -23212,11 +23213,11 @@
       <c r="G372" s="2">
         <v>2.8472222222222219E-3</v>
       </c>
-      <c r="H372" s="7">
+      <c r="H372" s="6">
         <f t="shared" si="5"/>
         <v>246</v>
       </c>
-      <c r="I372" s="6" t="s">
+      <c r="I372" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J372" t="s">
@@ -23263,11 +23264,11 @@
       <c r="G373" s="2">
         <v>9.0277777777777784E-4</v>
       </c>
-      <c r="H373" s="7">
+      <c r="H373" s="6">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="I373" s="6" t="s">
+      <c r="I373" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J373" t="s">
@@ -23314,11 +23315,11 @@
       <c r="G374" s="2">
         <v>3.1249999999999997E-3</v>
       </c>
-      <c r="H374" s="7">
+      <c r="H374" s="6">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="I374" s="6" t="s">
+      <c r="I374" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="J374" t="s">
@@ -23371,11 +23372,11 @@
       <c r="G375" s="2">
         <v>2.3958333333333336E-3</v>
       </c>
-      <c r="H375" s="7">
+      <c r="H375" s="6">
         <f t="shared" si="5"/>
         <v>207</v>
       </c>
-      <c r="I375" s="6" t="s">
+      <c r="I375" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J375" t="s">
@@ -23422,11 +23423,11 @@
       <c r="G376" s="2">
         <v>3.2986111111111111E-3</v>
       </c>
-      <c r="H376" s="7">
+      <c r="H376" s="6">
         <f t="shared" si="5"/>
         <v>285</v>
       </c>
-      <c r="I376" s="6" t="s">
+      <c r="I376" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J376" t="s">
@@ -23476,11 +23477,11 @@
       <c r="G377" s="2">
         <v>3.530092592592592E-3</v>
       </c>
-      <c r="H377" s="7">
+      <c r="H377" s="6">
         <f t="shared" si="5"/>
         <v>305</v>
       </c>
-      <c r="I377" s="6" t="s">
+      <c r="I377" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J377" t="s">
@@ -23530,11 +23531,11 @@
       <c r="G378" s="2">
         <v>5.37037037037037E-3</v>
       </c>
-      <c r="H378" s="7">
+      <c r="H378" s="6">
         <f t="shared" si="5"/>
         <v>464</v>
       </c>
-      <c r="I378" s="6" t="s">
+      <c r="I378" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J378" t="s">
@@ -23581,11 +23582,11 @@
       <c r="G379" s="2">
         <v>3.0092592592592588E-3</v>
       </c>
-      <c r="H379" s="7">
+      <c r="H379" s="6">
         <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="I379" s="6" t="s">
+      <c r="I379" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J379" t="s">
@@ -23638,11 +23639,11 @@
       <c r="G380" s="2">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="H380" s="7">
+      <c r="H380" s="6">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="I380" s="6" t="s">
+      <c r="I380" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J380" t="s">
@@ -23689,11 +23690,11 @@
       <c r="G381" s="2">
         <v>2.8935185185185188E-3</v>
       </c>
-      <c r="H381" s="7">
+      <c r="H381" s="6">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="I381" s="6" t="s">
+      <c r="I381" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J381" t="s">
@@ -23743,11 +23744,11 @@
       <c r="G382" s="2">
         <v>1.423611111111111E-3</v>
       </c>
-      <c r="H382" s="7">
+      <c r="H382" s="6">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="I382" s="6" t="s">
+      <c r="I382" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J382" t="s">
@@ -23794,11 +23795,11 @@
       <c r="G383" s="2">
         <v>3.645833333333333E-3</v>
       </c>
-      <c r="H383" s="7">
+      <c r="H383" s="6">
         <f t="shared" si="5"/>
         <v>315</v>
       </c>
-      <c r="I383" s="6" t="s">
+      <c r="I383" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J383" t="s">
@@ -23845,11 +23846,11 @@
       <c r="G384" s="2">
         <v>3.0208333333333333E-3</v>
       </c>
-      <c r="H384" s="7">
+      <c r="H384" s="6">
         <f t="shared" si="5"/>
         <v>261</v>
       </c>
-      <c r="I384" s="6" t="s">
+      <c r="I384" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J384" t="s">
@@ -23899,11 +23900,11 @@
       <c r="G385" s="2">
         <v>3.0787037037037037E-3</v>
       </c>
-      <c r="H385" s="7">
+      <c r="H385" s="6">
         <f t="shared" si="5"/>
         <v>266</v>
       </c>
-      <c r="I385" s="6" t="s">
+      <c r="I385" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J385" t="s">
@@ -23953,11 +23954,11 @@
       <c r="G386" s="2">
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="H386" s="7">
+      <c r="H386" s="6">
         <f t="shared" si="5"/>
         <v>234</v>
       </c>
-      <c r="I386" s="6" t="s">
+      <c r="I386" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J386" t="s">
@@ -24004,11 +24005,11 @@
       <c r="G387" s="2">
         <v>2.7893518518518519E-3</v>
       </c>
-      <c r="H387" s="7">
+      <c r="H387" s="6">
         <f t="shared" si="5"/>
         <v>241</v>
       </c>
-      <c r="I387" s="6" t="s">
+      <c r="I387" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J387" t="s">
@@ -24058,11 +24059,11 @@
       <c r="G388" s="2">
         <v>3.0092592592592588E-3</v>
       </c>
-      <c r="H388" s="7">
-        <f t="shared" ref="H388:H440" si="6">(HOUR(G388)*3600) + (MINUTE(G388)*60) + SECOND(G388)</f>
+      <c r="H388" s="6">
+        <f t="shared" ref="H388:H440" si="7">(HOUR(G388)*3600) + (MINUTE(G388)*60) + SECOND(G388)</f>
         <v>260</v>
       </c>
-      <c r="I388" s="6" t="s">
+      <c r="I388" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J388" t="s">
@@ -24112,11 +24113,11 @@
       <c r="G389" s="2">
         <v>3.37962962962963E-3</v>
       </c>
-      <c r="H389" s="7">
-        <f t="shared" si="6"/>
+      <c r="H389" s="6">
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
-      <c r="I389" s="6" t="s">
+      <c r="I389" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J389" t="s">
@@ -24166,11 +24167,11 @@
       <c r="G390" s="2">
         <v>5.115740740740741E-3</v>
       </c>
-      <c r="H390" s="7">
-        <f t="shared" si="6"/>
+      <c r="H390" s="6">
+        <f t="shared" si="7"/>
         <v>442</v>
       </c>
-      <c r="I390" s="6" t="s">
+      <c r="I390" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="J390" t="s">
@@ -24220,11 +24221,11 @@
       <c r="G391" s="2">
         <v>2.3842592592592591E-3</v>
       </c>
-      <c r="H391" s="7">
-        <f t="shared" si="6"/>
+      <c r="H391" s="6">
+        <f t="shared" si="7"/>
         <v>206</v>
       </c>
-      <c r="I391" s="6" t="s">
+      <c r="I391" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J391" t="s">
@@ -24277,11 +24278,11 @@
       <c r="G392" s="2">
         <v>3.0439814814814821E-3</v>
       </c>
-      <c r="H392" s="7">
-        <f t="shared" si="6"/>
+      <c r="H392" s="6">
+        <f t="shared" si="7"/>
         <v>263</v>
       </c>
-      <c r="I392" s="6" t="s">
+      <c r="I392" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J392" t="s">
@@ -24334,11 +24335,11 @@
       <c r="G393" s="2">
         <v>3.6226851851851854E-3</v>
       </c>
-      <c r="H393" s="7">
-        <f t="shared" si="6"/>
+      <c r="H393" s="6">
+        <f t="shared" si="7"/>
         <v>313</v>
       </c>
-      <c r="I393" s="6" t="s">
+      <c r="I393" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J393" t="s">
@@ -24391,11 +24392,11 @@
       <c r="G394" s="2">
         <v>4.9652777777777777E-3</v>
       </c>
-      <c r="H394" s="7">
-        <f t="shared" si="6"/>
+      <c r="H394" s="6">
+        <f t="shared" si="7"/>
         <v>429</v>
       </c>
-      <c r="I394" s="6" t="s">
+      <c r="I394" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J394" t="s">
@@ -24448,11 +24449,11 @@
       <c r="G395" s="2">
         <v>3.8657407407407408E-3</v>
       </c>
-      <c r="H395" s="7">
-        <f t="shared" si="6"/>
+      <c r="H395" s="6">
+        <f t="shared" si="7"/>
         <v>334</v>
       </c>
-      <c r="I395" s="6" t="s">
+      <c r="I395" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J395" t="s">
@@ -24505,11 +24506,11 @@
       <c r="G396" s="2">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="H396" s="7">
-        <f t="shared" si="6"/>
+      <c r="H396" s="6">
+        <f t="shared" si="7"/>
         <v>322</v>
       </c>
-      <c r="I396" s="6" t="s">
+      <c r="I396" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J396" t="s">
@@ -24562,11 +24563,11 @@
       <c r="G397" s="2">
         <v>4.8958333333333328E-3</v>
       </c>
-      <c r="H397" s="7">
-        <f t="shared" si="6"/>
+      <c r="H397" s="6">
+        <f t="shared" si="7"/>
         <v>423</v>
       </c>
-      <c r="I397" s="6" t="s">
+      <c r="I397" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J397" t="s">
@@ -24619,11 +24620,11 @@
       <c r="G398" s="2">
         <v>2.8240740740740739E-3</v>
       </c>
-      <c r="H398" s="7">
-        <f t="shared" si="6"/>
+      <c r="H398" s="6">
+        <f t="shared" si="7"/>
         <v>244</v>
       </c>
-      <c r="I398" s="6" t="s">
+      <c r="I398" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J398" t="s">
@@ -24676,11 +24677,11 @@
       <c r="G399" s="2">
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="H399" s="7">
-        <f t="shared" si="6"/>
+      <c r="H399" s="6">
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
-      <c r="I399" s="6" t="s">
+      <c r="I399" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J399" t="s">
@@ -24733,11 +24734,11 @@
       <c r="G400" s="2">
         <v>3.8078703703703707E-3</v>
       </c>
-      <c r="H400" s="7">
-        <f t="shared" si="6"/>
+      <c r="H400" s="6">
+        <f t="shared" si="7"/>
         <v>329</v>
       </c>
-      <c r="I400" s="6" t="s">
+      <c r="I400" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J400" t="s">
@@ -24790,11 +24791,11 @@
       <c r="G401" s="2">
         <v>2.8009259259259259E-3</v>
       </c>
-      <c r="H401" s="7">
-        <f t="shared" si="6"/>
+      <c r="H401" s="6">
+        <f t="shared" si="7"/>
         <v>242</v>
       </c>
-      <c r="I401" s="6" t="s">
+      <c r="I401" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J401" t="s">
@@ -24847,11 +24848,11 @@
       <c r="G402" s="2">
         <v>4.4791666666666669E-3</v>
       </c>
-      <c r="H402" s="7">
-        <f t="shared" si="6"/>
+      <c r="H402" s="6">
+        <f t="shared" si="7"/>
         <v>387</v>
       </c>
-      <c r="I402" s="6" t="s">
+      <c r="I402" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J402" t="s">
@@ -24904,11 +24905,11 @@
       <c r="G403" s="2">
         <v>3.2060185185185191E-3</v>
       </c>
-      <c r="H403" s="7">
-        <f t="shared" si="6"/>
+      <c r="H403" s="6">
+        <f t="shared" si="7"/>
         <v>277</v>
       </c>
-      <c r="I403" s="6" t="s">
+      <c r="I403" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="J403" t="s">
@@ -24961,11 +24962,11 @@
       <c r="G404" s="2">
         <v>3.3217592592592591E-3</v>
       </c>
-      <c r="H404" s="7">
-        <f t="shared" si="6"/>
+      <c r="H404" s="6">
+        <f t="shared" si="7"/>
         <v>287</v>
       </c>
-      <c r="I404" s="6" t="s">
+      <c r="I404" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J404" t="s">
@@ -25018,11 +25019,11 @@
       <c r="G405" s="2">
         <v>3.9699074074074072E-3</v>
       </c>
-      <c r="H405" s="7">
-        <f t="shared" si="6"/>
+      <c r="H405" s="6">
+        <f t="shared" si="7"/>
         <v>343</v>
       </c>
-      <c r="I405" s="6" t="s">
+      <c r="I405" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J405" t="s">
@@ -25075,11 +25076,11 @@
       <c r="G406" s="2">
         <v>4.1435185185185186E-3</v>
       </c>
-      <c r="H406" s="7">
-        <f t="shared" si="6"/>
+      <c r="H406" s="6">
+        <f t="shared" si="7"/>
         <v>358</v>
       </c>
-      <c r="I406" s="6" t="s">
+      <c r="I406" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J406" t="s">
@@ -25132,11 +25133,11 @@
       <c r="G407" s="2">
         <v>4.3055555555555555E-3</v>
       </c>
-      <c r="H407" s="7">
-        <f t="shared" si="6"/>
+      <c r="H407" s="6">
+        <f t="shared" si="7"/>
         <v>372</v>
       </c>
-      <c r="I407" s="6" t="s">
+      <c r="I407" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J407" t="s">
@@ -25189,11 +25190,11 @@
       <c r="G408" s="2">
         <v>6.3425925925925915E-3</v>
       </c>
-      <c r="H408" s="7">
-        <f t="shared" si="6"/>
+      <c r="H408" s="6">
+        <f t="shared" si="7"/>
         <v>548</v>
       </c>
-      <c r="I408" s="6" t="s">
+      <c r="I408" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J408" t="s">
@@ -25246,11 +25247,11 @@
       <c r="G409" s="2">
         <v>4.155092592592593E-3</v>
       </c>
-      <c r="H409" s="7">
-        <f t="shared" si="6"/>
+      <c r="H409" s="6">
+        <f t="shared" si="7"/>
         <v>359</v>
       </c>
-      <c r="I409" s="6" t="s">
+      <c r="I409" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J409" t="s">
@@ -25303,11 +25304,11 @@
       <c r="G410" s="2">
         <v>3.1249999999999997E-3</v>
       </c>
-      <c r="H410" s="7">
-        <f t="shared" si="6"/>
+      <c r="H410" s="6">
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
-      <c r="I410" s="6" t="s">
+      <c r="I410" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J410" t="s">
@@ -25360,11 +25361,11 @@
       <c r="G411" s="2">
         <v>4.0972222222222226E-3</v>
       </c>
-      <c r="H411" s="7">
-        <f t="shared" si="6"/>
+      <c r="H411" s="6">
+        <f t="shared" si="7"/>
         <v>354</v>
       </c>
-      <c r="I411" s="6" t="s">
+      <c r="I411" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J411" t="s">
@@ -25417,11 +25418,11 @@
       <c r="G412" s="2">
         <v>3.3217592592592591E-3</v>
       </c>
-      <c r="H412" s="7">
-        <f t="shared" si="6"/>
+      <c r="H412" s="6">
+        <f t="shared" si="7"/>
         <v>287</v>
       </c>
-      <c r="I412" s="6" t="s">
+      <c r="I412" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J412" t="s">
@@ -25474,11 +25475,11 @@
       <c r="G413" s="2">
         <v>4.0624999999999993E-3</v>
       </c>
-      <c r="H413" s="7">
-        <f t="shared" si="6"/>
+      <c r="H413" s="6">
+        <f t="shared" si="7"/>
         <v>351</v>
       </c>
-      <c r="I413" s="6" t="s">
+      <c r="I413" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J413" t="s">
@@ -25531,11 +25532,11 @@
       <c r="G414" s="2">
         <v>3.8888888888888883E-3</v>
       </c>
-      <c r="H414" s="7">
-        <f t="shared" si="6"/>
+      <c r="H414" s="6">
+        <f t="shared" si="7"/>
         <v>336</v>
       </c>
-      <c r="I414" s="6" t="s">
+      <c r="I414" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="J414" t="s">
@@ -25588,11 +25589,11 @@
       <c r="G415" s="2">
         <v>9.7222222222222209E-4</v>
       </c>
-      <c r="H415" s="7">
-        <f t="shared" si="6"/>
+      <c r="H415" s="6">
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="I415" s="6" t="s">
+      <c r="I415" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J415" t="s">
@@ -25636,11 +25637,11 @@
       <c r="G416" s="2">
         <v>2.2916666666666667E-3</v>
       </c>
-      <c r="H416" s="7">
-        <f t="shared" si="6"/>
+      <c r="H416" s="6">
+        <f t="shared" si="7"/>
         <v>198</v>
       </c>
-      <c r="I416" s="6" t="s">
+      <c r="I416" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J416" t="s">
@@ -25687,11 +25688,11 @@
       <c r="G417" s="2">
         <v>2.7314814814814819E-3</v>
       </c>
-      <c r="H417" s="7">
-        <f t="shared" si="6"/>
+      <c r="H417" s="6">
+        <f t="shared" si="7"/>
         <v>236</v>
       </c>
-      <c r="I417" s="6" t="s">
+      <c r="I417" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J417" t="s">
@@ -25744,11 +25745,11 @@
       <c r="G418" s="2">
         <v>2.615740740740741E-3</v>
       </c>
-      <c r="H418" s="7">
-        <f t="shared" si="6"/>
+      <c r="H418" s="6">
+        <f t="shared" si="7"/>
         <v>226</v>
       </c>
-      <c r="I418" s="6" t="s">
+      <c r="I418" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J418" t="s">
@@ -25801,11 +25802,11 @@
       <c r="G419" s="2">
         <v>1.9097222222222222E-3</v>
       </c>
-      <c r="H419" s="7">
-        <f t="shared" si="6"/>
+      <c r="H419" s="6">
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
-      <c r="I419" s="6" t="s">
+      <c r="I419" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J419" t="s">
@@ -25858,11 +25859,11 @@
       <c r="G420" s="2">
         <v>3.3912037037037036E-3</v>
       </c>
-      <c r="H420" s="7">
-        <f t="shared" si="6"/>
+      <c r="H420" s="6">
+        <f t="shared" si="7"/>
         <v>293</v>
       </c>
-      <c r="I420" s="6" t="s">
+      <c r="I420" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J420" t="s">
@@ -25915,11 +25916,11 @@
       <c r="G421" s="2">
         <v>3.6574074074074074E-3</v>
       </c>
-      <c r="H421" s="7">
-        <f t="shared" si="6"/>
+      <c r="H421" s="6">
+        <f t="shared" si="7"/>
         <v>316</v>
       </c>
-      <c r="I421" s="6" t="s">
+      <c r="I421" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J421" t="s">
@@ -25972,11 +25973,11 @@
       <c r="G422" s="2">
         <v>2.4537037037037036E-3</v>
       </c>
-      <c r="H422" s="7">
-        <f t="shared" si="6"/>
+      <c r="H422" s="6">
+        <f t="shared" si="7"/>
         <v>212</v>
       </c>
-      <c r="I422" s="6" t="s">
+      <c r="I422" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J422" t="s">
@@ -26029,11 +26030,11 @@
       <c r="G423" s="2">
         <v>3.2407407407407406E-3</v>
       </c>
-      <c r="H423" s="7">
-        <f t="shared" si="6"/>
+      <c r="H423" s="6">
+        <f t="shared" si="7"/>
         <v>280</v>
       </c>
-      <c r="I423" s="6" t="s">
+      <c r="I423" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J423" t="s">
@@ -26086,11 +26087,11 @@
       <c r="G424" s="2">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="H424" s="7">
-        <f t="shared" si="6"/>
+      <c r="H424" s="6">
+        <f t="shared" si="7"/>
         <v>373</v>
       </c>
-      <c r="I424" s="6" t="s">
+      <c r="I424" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J424" t="s">
@@ -26143,11 +26144,11 @@
       <c r="G425" s="2">
         <v>2.4768518518518516E-3</v>
       </c>
-      <c r="H425" s="7">
-        <f t="shared" si="6"/>
+      <c r="H425" s="6">
+        <f t="shared" si="7"/>
         <v>214</v>
       </c>
-      <c r="I425" s="6" t="s">
+      <c r="I425" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J425" t="s">
@@ -26200,11 +26201,11 @@
       <c r="G426" s="2">
         <v>3.1828703703703702E-3</v>
       </c>
-      <c r="H426" s="7">
-        <f t="shared" si="6"/>
+      <c r="H426" s="6">
+        <f t="shared" si="7"/>
         <v>275</v>
       </c>
-      <c r="I426" s="6" t="s">
+      <c r="I426" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J426" t="s">
@@ -26251,11 +26252,11 @@
       <c r="G427" s="2">
         <v>2.6504629629629625E-3</v>
       </c>
-      <c r="H427" s="7">
-        <f t="shared" si="6"/>
+      <c r="H427" s="6">
+        <f t="shared" si="7"/>
         <v>229</v>
       </c>
-      <c r="I427" s="6" t="s">
+      <c r="I427" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J427" t="s">
@@ -26302,11 +26303,11 @@
       <c r="G428" s="2">
         <v>2.2800925925925927E-3</v>
       </c>
-      <c r="H428" s="7">
-        <f t="shared" si="6"/>
+      <c r="H428" s="6">
+        <f t="shared" si="7"/>
         <v>197</v>
       </c>
-      <c r="I428" s="6" t="s">
+      <c r="I428" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J428" t="s">
@@ -26353,11 +26354,11 @@
       <c r="G429" s="2">
         <v>1.2384259259259258E-3</v>
       </c>
-      <c r="H429" s="7">
-        <f t="shared" si="6"/>
+      <c r="H429" s="6">
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
-      <c r="I429" s="6" t="s">
+      <c r="I429" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="J429" t="s">
@@ -26401,11 +26402,11 @@
       <c r="G430" s="2">
         <v>3.414351851851852E-3</v>
       </c>
-      <c r="H430" s="7">
-        <f t="shared" si="6"/>
+      <c r="H430" s="6">
+        <f t="shared" si="7"/>
         <v>295</v>
       </c>
-      <c r="I430" s="6" t="s">
+      <c r="I430" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J430" t="s">
@@ -26455,11 +26456,11 @@
       <c r="G431" s="2">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="H431" s="7">
-        <f t="shared" si="6"/>
+      <c r="H431" s="6">
+        <f t="shared" si="7"/>
         <v>330</v>
       </c>
-      <c r="I431" s="6" t="s">
+      <c r="I431" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J431" t="s">
@@ -26506,11 +26507,11 @@
       <c r="G432" s="2">
         <v>3.425925925925926E-3</v>
       </c>
-      <c r="H432" s="7">
-        <f t="shared" si="6"/>
+      <c r="H432" s="6">
+        <f t="shared" si="7"/>
         <v>296</v>
       </c>
-      <c r="I432" s="6" t="s">
+      <c r="I432" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J432" t="s">
@@ -26563,11 +26564,11 @@
       <c r="G433" s="2">
         <v>3.530092592592592E-3</v>
       </c>
-      <c r="H433" s="7">
-        <f t="shared" si="6"/>
+      <c r="H433" s="6">
+        <f t="shared" si="7"/>
         <v>305</v>
       </c>
-      <c r="I433" s="6" t="s">
+      <c r="I433" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J433" t="s">
@@ -26620,11 +26621,11 @@
       <c r="G434" s="2">
         <v>2.8356481481481479E-3</v>
       </c>
-      <c r="H434" s="7">
-        <f t="shared" si="6"/>
+      <c r="H434" s="6">
+        <f t="shared" si="7"/>
         <v>245</v>
       </c>
-      <c r="I434" s="6" t="s">
+      <c r="I434" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J434" t="s">
@@ -26674,11 +26675,11 @@
       <c r="G435" s="2">
         <v>3.1249999999999997E-3</v>
       </c>
-      <c r="H435" s="7">
-        <f t="shared" si="6"/>
+      <c r="H435" s="6">
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
-      <c r="I435" s="6" t="s">
+      <c r="I435" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J435" t="s">
@@ -26731,11 +26732,11 @@
       <c r="G436" s="2">
         <v>3.3449074074074071E-3</v>
       </c>
-      <c r="H436" s="7">
-        <f t="shared" si="6"/>
+      <c r="H436" s="6">
+        <f t="shared" si="7"/>
         <v>289</v>
       </c>
-      <c r="I436" s="6" t="s">
+      <c r="I436" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J436" t="s">
@@ -26785,11 +26786,11 @@
       <c r="G437" s="2">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="H437" s="7">
-        <f t="shared" si="6"/>
+      <c r="H437" s="6">
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="I437" s="6" t="s">
+      <c r="I437" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J437" t="s">
@@ -26839,11 +26840,11 @@
       <c r="G438" s="2">
         <v>3.6574074074074074E-3</v>
       </c>
-      <c r="H438" s="7">
-        <f t="shared" si="6"/>
+      <c r="H438" s="6">
+        <f t="shared" si="7"/>
         <v>316</v>
       </c>
-      <c r="I438" s="6" t="s">
+      <c r="I438" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J438" t="s">
@@ -26893,11 +26894,11 @@
       <c r="G439" s="2">
         <v>3.2870370370370367E-3</v>
       </c>
-      <c r="H439" s="7">
-        <f t="shared" si="6"/>
+      <c r="H439" s="6">
+        <f t="shared" si="7"/>
         <v>284</v>
       </c>
-      <c r="I439" s="6" t="s">
+      <c r="I439" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J439" t="s">
@@ -26947,11 +26948,11 @@
       <c r="G440" s="2">
         <v>4.1319444444444442E-3</v>
       </c>
-      <c r="H440" s="7">
-        <f t="shared" si="6"/>
+      <c r="H440" s="6">
+        <f t="shared" si="7"/>
         <v>357</v>
       </c>
-      <c r="I440" s="6" t="s">
+      <c r="I440" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="J440" t="s">
